--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12075" windowHeight="5460"/>
+    <workbookView windowWidth="12075" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Full Name:</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Email Client:</t>
+  </si>
+  <si>
+    <t>(Primary)</t>
+  </si>
+  <si>
+    <t>Display Employee Record:</t>
+  </si>
+  <si>
+    <t>Store Access:</t>
+  </si>
+  <si>
+    <t>Send Reminder:</t>
   </si>
   <si>
     <t>KC Automation</t>
@@ -157,8 +169,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -262,6 +274,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -301,13 +320,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,18 +340,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,18 +394,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,13 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +478,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,91 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +628,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,64 +646,64 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -700,61 +712,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1123,9 +1135,12 @@
     <col min="22" max="22" width="12.5714285714286" customWidth="1"/>
     <col min="23" max="23" width="27.5714285714286" customWidth="1"/>
     <col min="24" max="24" width="18.2857142857143" customWidth="1"/>
+    <col min="26" max="26" width="26.2857142857143" customWidth="1"/>
+    <col min="27" max="27" width="13.5714285714286" customWidth="1"/>
+    <col min="28" max="28" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,65 +1212,77 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T2" s="2">
         <v>250.24</v>
@@ -1264,13 +1291,13 @@
         <v>140.23</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12075" windowHeight="5805"/>
+    <workbookView windowWidth="20385" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
+    <sheet name="Password" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:X2"/>
+  <oleSize ref="B1:Y2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Full Name:</t>
   </si>
@@ -160,6 +161,30 @@
   </si>
   <si>
     <t>Sugar Email Client</t>
+  </si>
+  <si>
+    <t>Current Password:</t>
+  </si>
+  <si>
+    <t>New Password:</t>
+  </si>
+  <si>
+    <t>Confirm Password:</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Filtademo1</t>
+  </si>
+  <si>
+    <t>The password should contain one letter in lower case, one letter in upper case and one number.</t>
+  </si>
+  <si>
+    <t>rgba(0, 130, 196, 1)</t>
   </si>
 </sst>
 </file>
@@ -167,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +206,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9.75"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,31 +243,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +296,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,68 +320,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,12 +365,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,25 +443,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,18 +503,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,115 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +556,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,46 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,26 +633,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,135 +677,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1105,7 +1137,7 @@
   <sheetPr/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
@@ -1140,163 +1172,163 @@
     <col min="28" max="28" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:28">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:24">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" ht="45" spans="1:24">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="3">
         <v>250.24</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>140.23</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1304,4 +1336,62 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="95.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355" activeTab="1"/>
+    <workbookView windowWidth="12075" windowHeight="5760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>Full Name:</t>
   </si>
@@ -178,6 +178,24 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Alert1</t>
+  </si>
+  <si>
+    <t>Alert2</t>
+  </si>
+  <si>
+    <t>SugarDashlet1</t>
+  </si>
+  <si>
+    <t>SugarDashlet2</t>
+  </si>
+  <si>
+    <t>Error1</t>
+  </si>
+  <si>
+    <t>Error2</t>
+  </si>
+  <si>
     <t>Filtademo1</t>
   </si>
   <si>
@@ -185,6 +203,27 @@
   </si>
   <si>
     <t>rgba(0, 130, 196, 1)</t>
+  </si>
+  <si>
+    <t>Please enter your new password.</t>
+  </si>
+  <si>
+    <t>Please enter your password confirmation.</t>
+  </si>
+  <si>
+    <t>Password Updated</t>
+  </si>
+  <si>
+    <t>Password was changed successfully.</t>
+  </si>
+  <si>
+    <t>Error: Incorrect current password for user</t>
+  </si>
+  <si>
+    <t>. Re-enter password information.</t>
+  </si>
+  <si>
+    <t>The passwords do not match.</t>
   </si>
 </sst>
 </file>
@@ -192,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,22 +252,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,8 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,38 +284,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,17 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +321,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -328,29 +381,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,12 +404,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,37 +506,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,109 +572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +595,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,22 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +651,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,41 +687,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,130 +716,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,22 +1380,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="29.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="95.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="33.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="36.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="41.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="33.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1372,22 +1417,63 @@
       <c r="E1" t="s">
         <v>52</v>
       </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12075" windowHeight="5760" activeTab="1"/>
+    <workbookView windowWidth="12075" windowHeight="5805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
     <sheet name="Password" sheetId="2" r:id="rId2"/>
+    <sheet name="Theme" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="B1:Y2"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>Full Name:</t>
   </si>
@@ -224,6 +225,21 @@
   </si>
   <si>
     <t>The passwords do not match.</t>
+  </si>
+  <si>
+    <t>Theme1</t>
+  </si>
+  <si>
+    <t>Theme2</t>
+  </si>
+  <si>
+    <t>ThemeCount</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Filta</t>
   </si>
 </sst>
 </file>
@@ -231,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -251,16 +267,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +290,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -282,17 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,6 +344,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -321,75 +374,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +649,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -658,21 +698,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -686,27 +711,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,130 +732,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,7 +1398,7 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1480,4 +1496,43 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7B5D6CA-A1DF-44ED-BBA7-070748FDF753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="12075" windowHeight="5805" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12135" windowHeight="12615" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
     <sheet name="Password" sheetId="2" r:id="rId2"/>
     <sheet name="Theme" sheetId="3" r:id="rId3"/>
+    <sheet name="Advanced" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <oleSize ref="B1:Y2"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>Full Name:</t>
   </si>
@@ -240,19 +242,55 @@
   </si>
   <si>
     <t>Filta</t>
+  </si>
+  <si>
+    <t>Export Delimiter:</t>
+  </si>
+  <si>
+    <t>Specify the character(s) used to delimit exported data.</t>
+  </si>
+  <si>
+    <t>Import/Export Character Set:</t>
+  </si>
+  <si>
+    <t>Choose the character set used in your locale. This property will be used for data imports, .csv exports and for vCard generation.</t>
+  </si>
+  <si>
+    <t>Show Full Names:</t>
+  </si>
+  <si>
+    <t>Display users' full names instead of their User Names in assignment fields.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Notify on Assignment:</t>
+  </si>
+  <si>
+    <t>Receive an email notification when a record is assigned to you.</t>
+  </si>
+  <si>
+    <t>Reminders:</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mail Merge:</t>
+  </si>
+  <si>
+    <t>Enable Mail Merge (Mail Merge must also be enabled by the system administrator in Configure Settings)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,346 +304,16 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -613,320 +321,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1184,50 +609,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="7.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="13.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="12.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="9.14285714285714" customWidth="1"/>
-    <col min="14" max="14" width="10.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="15.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="13.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="14.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="25.4285714285714" customWidth="1"/>
-    <col min="19" max="19" width="17.5714285714286" customWidth="1"/>
-    <col min="20" max="20" width="22.7142857142857" customWidth="1"/>
-    <col min="21" max="21" width="23.2857142857143" customWidth="1"/>
-    <col min="22" max="22" width="12.5714285714286" customWidth="1"/>
-    <col min="23" max="23" width="27.5714285714286" customWidth="1"/>
-    <col min="24" max="24" width="18.2857142857143" customWidth="1"/>
-    <col min="26" max="26" width="26.2857142857143" customWidth="1"/>
-    <col min="27" max="27" width="13.5714285714286" customWidth="1"/>
-    <col min="28" max="28" width="16.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="27.5703125" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:28">
+    <row r="1" spans="1:28" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="45" spans="1:24">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="45">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +800,7 @@
         <v>250.24</v>
       </c>
       <c r="U2" s="2">
-        <v>140.23</v>
+        <v>140.22999999999999</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>45</v>
@@ -1388,33 +813,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="29.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="95.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="33.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="36.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="41.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="33.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1487,27 +910,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:11">
       <c r="C3" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1532,7 +953,77 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2529E99-3994-4FEC-84DB-7D56DC629B9D}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7B5D6CA-A1DF-44ED-BBA7-070748FDF753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B62C0919-738E-4884-B879-66A64BDA4ECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="12135" windowHeight="12615" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12180" windowHeight="13224" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>Full Name:</t>
   </si>
@@ -284,6 +284,84 @@
   </si>
   <si>
     <t>Enable Mail Merge (Mail Merge must also be enabled by the system administrator in Configure Settings)</t>
+  </si>
+  <si>
+    <t>UTF-8</t>
+  </si>
+  <si>
+    <t>BIG-5</t>
+  </si>
+  <si>
+    <t>CP1251</t>
+  </si>
+  <si>
+    <t>CP1252</t>
+  </si>
+  <si>
+    <t>EUC-CN</t>
+  </si>
+  <si>
+    <t>EUC-JP</t>
+  </si>
+  <si>
+    <t>EUC-KR</t>
+  </si>
+  <si>
+    <t>EUC-TW</t>
+  </si>
+  <si>
+    <t>ISO-2022-JP</t>
+  </si>
+  <si>
+    <t>ISO-2022-KR</t>
+  </si>
+  <si>
+    <t>ISO-8859-1</t>
+  </si>
+  <si>
+    <t>ISO-8859-2</t>
+  </si>
+  <si>
+    <t>ISO-8859-3</t>
+  </si>
+  <si>
+    <t>ISO-8859-4</t>
+  </si>
+  <si>
+    <t>ISO-8859-5</t>
+  </si>
+  <si>
+    <t>ISO-8859-6</t>
+  </si>
+  <si>
+    <t>ISO-8859-7</t>
+  </si>
+  <si>
+    <t>ISO-8859-8</t>
+  </si>
+  <si>
+    <t>ISO-8859-9</t>
+  </si>
+  <si>
+    <t>ISO-8859-10</t>
+  </si>
+  <si>
+    <t>ISO-8859-13</t>
+  </si>
+  <si>
+    <t>ISO-8859-14</t>
+  </si>
+  <si>
+    <t>ISO-8859-15</t>
+  </si>
+  <si>
+    <t>KOI8-R</t>
+  </si>
+  <si>
+    <t>KOI8-U</t>
+  </si>
+  <si>
+    <t>SJIS</t>
   </si>
 </sst>
 </file>
@@ -621,35 +699,35 @@
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="27.5703125" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="23" max="23" width="27.5546875" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="26" max="26" width="26.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1">
@@ -738,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="45">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="43.2">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -825,19 +903,19 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="95.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" customWidth="1"/>
+    <col min="10" max="10" width="41.109375" customWidth="1"/>
+    <col min="11" max="11" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -928,7 +1006,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -959,23 +1037,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2529E99-3994-4FEC-84DB-7D56DC629B9D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -994,8 +1073,11 @@
       <c r="F1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
@@ -1014,15 +1096,140 @@
       <c r="F2" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>80</v>
       </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
       <c r="E3" t="s">
         <v>85</v>
       </c>
-    </row>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B62C0919-738E-4884-B879-66A64BDA4ECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7046E4D1-2B61-4B9E-ADDD-AB91DB5523D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12180" windowHeight="13224" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12210" windowHeight="16500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
     <sheet name="Password" sheetId="2" r:id="rId2"/>
     <sheet name="Theme" sheetId="3" r:id="rId3"/>
     <sheet name="Advanced" sheetId="4" r:id="rId4"/>
+    <sheet name="Layout" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:P12"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
   <si>
     <t>Full Name:</t>
   </si>
@@ -362,6 +363,33 @@
   </si>
   <si>
     <t>SJIS</t>
+  </si>
+  <si>
+    <t>Layout Options</t>
+  </si>
+  <si>
+    <t>Module Menu Filters:</t>
+  </si>
+  <si>
+    <t>Select to be able to view modules in the navigation bar based on pre-defined groups. When selected, the "Filter Menu By" feature will appear in the "More" menu.</t>
+  </si>
+  <si>
+    <t>Select Modules for Navigation Bar</t>
+  </si>
+  <si>
+    <t>Select which modules are accessible within the top navigation bar. Designate the order in which you would like the modules to appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Modules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide Modules </t>
+  </si>
+  <si>
+    <t>Subpanel Tabs:</t>
+  </si>
+  <si>
+    <t>In Detail Views, group Subpanels into tabs and display one tab at a time.</t>
   </si>
 </sst>
 </file>
@@ -699,35 +727,35 @@
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="25.44140625" customWidth="1"/>
-    <col min="19" max="19" width="17.5546875" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" customWidth="1"/>
-    <col min="21" max="21" width="23.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="23" max="23" width="27.5546875" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" customWidth="1"/>
-    <col min="26" max="26" width="26.33203125" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="27.5703125" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1">
@@ -816,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="43.2">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="45">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -903,19 +931,19 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="95.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" customWidth="1"/>
-    <col min="10" max="10" width="41.109375" customWidth="1"/>
-    <col min="11" max="11" width="33.44140625" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1006,7 +1034,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1039,19 +1067,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2529E99-3994-4FEC-84DB-7D56DC629B9D}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1077,7 +1105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
@@ -1233,4 +1261,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406C1DD-DBF3-427E-BFC6-231D11408D62}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7046E4D1-2B61-4B9E-ADDD-AB91DB5523D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E715E9E1-9D11-4976-B8B4-257D99884FE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12210" windowHeight="16500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="12240" windowHeight="13224" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -380,16 +380,16 @@
     <t>Select which modules are accessible within the top navigation bar. Designate the order in which you would like the modules to appear.</t>
   </si>
   <si>
-    <t xml:space="preserve">Display Modules </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide Modules </t>
-  </si>
-  <si>
     <t>Subpanel Tabs:</t>
   </si>
   <si>
     <t>In Detail Views, group Subpanels into tabs and display one tab at a time.</t>
+  </si>
+  <si>
+    <t>Display Modules</t>
+  </si>
+  <si>
+    <t>Hide Modules</t>
   </si>
 </sst>
 </file>
@@ -727,35 +727,35 @@
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="27.5703125" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="23" max="23" width="27.5546875" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="26" max="26" width="26.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="45">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="43.2">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -931,19 +931,19 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="95.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" customWidth="1"/>
+    <col min="10" max="10" width="41.109375" customWidth="1"/>
+    <col min="11" max="11" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1034,7 +1034,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1071,15 +1071,15 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1105,7 +1105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
@@ -1267,19 +1267,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406C1DD-DBF3-427E-BFC6-231D11408D62}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="149.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1293,19 +1293,19 @@
         <v>117</v>
       </c>
       <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
       </c>
       <c r="G1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="B2" t="s">
         <v>116</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7"/>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E715E9E1-9D11-4976-B8B4-257D99884FE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A6972613-67F2-405F-9E1D-7F43FB3087EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12240" windowHeight="13224" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="12264" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Theme" sheetId="3" r:id="rId3"/>
     <sheet name="Advanced" sheetId="4" r:id="rId4"/>
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
+    <sheet name="Locale Settings" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P12"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="177">
   <si>
     <t>Full Name:</t>
   </si>
@@ -390,6 +391,168 @@
   </si>
   <si>
     <t>Hide Modules</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Leads</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Tech App</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Site-Evaluations</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>FIM Accounts</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Collectors</t>
+  </si>
+  <si>
+    <t>Jacobsen</t>
+  </si>
+  <si>
+    <t>FiltaBio Reported Volumes</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Timesheets</t>
+  </si>
+  <si>
+    <t>Worksheets</t>
+  </si>
+  <si>
+    <t>Oil Transfers</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Vans</t>
+  </si>
+  <si>
+    <t>Tanks</t>
+  </si>
+  <si>
+    <t>Invoice Settings</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Fryers</t>
+  </si>
+  <si>
+    <t>Schedule Infos</t>
+  </si>
+  <si>
+    <t>Postal/Zip Code</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>FiltaFry Invoices</t>
+  </si>
+  <si>
+    <t>Machines</t>
+  </si>
+  <si>
+    <t>FiltaCool Panels</t>
+  </si>
+  <si>
+    <t>Archive Reports</t>
+  </si>
+  <si>
+    <t>NCA Outgoing Payments</t>
+  </si>
+  <si>
+    <t>Discount &amp; Rebate</t>
+  </si>
+  <si>
+    <t>QB Invoices</t>
+  </si>
+  <si>
+    <t>Allocate Unapplied Payments</t>
+  </si>
+  <si>
+    <t>NCA Payments</t>
+  </si>
+  <si>
+    <t>Franchisee Credit-Debit</t>
+  </si>
+  <si>
+    <t>Franchisee Payments</t>
+  </si>
+  <si>
+    <t>QB Invoice Line Items</t>
+  </si>
+  <si>
+    <t>NCA Group</t>
+  </si>
+  <si>
+    <t>Rebate Payments</t>
+  </si>
+  <si>
+    <t>NCA Chain</t>
+  </si>
+  <si>
+    <t>Unapplied Payments</t>
+  </si>
+  <si>
+    <t>WO Storage Location</t>
+  </si>
+  <si>
+    <t>Advertisement Spends</t>
+  </si>
+  <si>
+    <t>Knowledge Base</t>
+  </si>
+  <si>
+    <t>Buyers</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406C1DD-DBF3-427E-BFC6-231D11408D62}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1282,7 +1445,7 @@
     <col min="7" max="7" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1304,8 +1467,11 @@
       <c r="G1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8">
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8">
       <c r="B2" t="s">
         <v>116</v>
       </c>
@@ -1315,9 +1481,301 @@
       <c r="F2" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:7"/>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="H8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8"/>
+    <row r="55" spans="8:8">
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A6972613-67F2-405F-9E1D-7F43FB3087EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{37005BB0-3414-44B5-8A18-1EF47754EE7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="12264" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12288" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="179">
   <si>
     <t>Full Name:</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>Buyers</t>
+  </si>
+  <si>
+    <t>Date Format:</t>
+  </si>
+  <si>
+    <t>Locale Settings</t>
   </si>
 </sst>
 </file>
@@ -1768,14 +1774,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{37005BB0-3414-44B5-8A18-1EF47754EE7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B6F56C6A-53D5-417C-B864-D753F6599DDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12288" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="12360" windowHeight="13224" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Locale Settings" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="F1:G8"/>
 </workbook>
 </file>
 
@@ -393,6 +393,12 @@
     <t>Hide Modules</t>
   </si>
   <si>
+    <t>Date Format:</t>
+  </si>
+  <si>
+    <t>Locale Settings</t>
+  </si>
+  <si>
     <t>Home</t>
   </si>
   <si>
@@ -553,12 +559,6 @@
   </si>
   <si>
     <t>Buyers</t>
-  </si>
-  <si>
-    <t>Date Format:</t>
-  </si>
-  <si>
-    <t>Locale Settings</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406C1DD-DBF3-427E-BFC6-231D11408D62}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="G55" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1449,6 +1449,7 @@
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="94.44140625" customWidth="1"/>
     <col min="7" max="7" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1474,7 +1475,7 @@
         <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8">
@@ -1488,82 +1489,82 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="H3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="H4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="H5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="H6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="H7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="H8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="H9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="H10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="H11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="H14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="H15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="H16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="8:8">
@@ -1573,200 +1574,201 @@
     </row>
     <row r="19" spans="8:8">
       <c r="H19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="8:8"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="55" spans="8:8">
       <c r="H55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8">
-      <c r="H58" t="s">
-        <v>176</v>
-      </c>
-    </row>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8"/>
+    <row r="59" spans="8:8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1776,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1788,10 +1790,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B6F56C6A-53D5-417C-B864-D753F6599DDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1DD3F61A-8018-4123-AD02-08E3A29D8F63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="12360" windowHeight="13224" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12384" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Locale Settings" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:G8"/>
+  <oleSize ref="A1:N13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
   <si>
     <t>Full Name:</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>Buyers</t>
+  </si>
+  <si>
+    <t>Currency:</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406C1DD-DBF3-427E-BFC6-231D11408D62}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G55" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1776,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1788,12 +1791,15 @@
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1DD3F61A-8018-4123-AD02-08E3A29D8F63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F9CED17F-2D2E-44A1-89A6-7FCE46E32BEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12384" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="12480" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="193">
   <si>
     <t>Full Name:</t>
   </si>
@@ -562,18 +562,64 @@
   </si>
   <si>
     <t>Currency:</t>
+  </si>
+  <si>
+    <t>Canadian Dollar : $$</t>
+  </si>
+  <si>
+    <t>Euro : €</t>
+  </si>
+  <si>
+    <t>Rand : R</t>
+  </si>
+  <si>
+    <t>US Dollar : $</t>
+  </si>
+  <si>
+    <t>"12/23/2010"</t>
+  </si>
+  <si>
+    <t>"23-12-2010"</t>
+  </si>
+  <si>
+    <t>"23/12/2010"</t>
+  </si>
+  <si>
+    <t>"2010.12.23"</t>
+  </si>
+  <si>
+    <t>"23.12.2010"</t>
+  </si>
+  <si>
+    <t>"12.23.2010"</t>
+  </si>
+  <si>
+    <t>"2010-12-23"</t>
+  </si>
+  <si>
+    <t>"12-23-2010"</t>
+  </si>
+  <si>
+    <t>"2010/12/23"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,9 +649,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -618,6 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1791,7 +1838,7 @@
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1802,7 +1849,66 @@
         <v>179</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F9CED17F-2D2E-44A1-89A6-7FCE46E32BEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9930B823-0840-4748-94F9-34D0A73FD67F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="12480" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12504" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="201">
   <si>
     <t>Full Name:</t>
   </si>
@@ -601,18 +601,52 @@
   </si>
   <si>
     <t>"2010/12/23"</t>
+  </si>
+  <si>
+    <t>Time Format:</t>
+  </si>
+  <si>
+    <t>11:00pm</t>
+  </si>
+  <si>
+    <t>11:00PM</t>
+  </si>
+  <si>
+    <t>11.00pm</t>
+  </si>
+  <si>
+    <t>11.00PM</t>
+  </si>
+  <si>
+    <t>11.00 pm</t>
+  </si>
+  <si>
+    <t>11.00 PM</t>
+  </si>
+  <si>
+    <t>Currency Significant Digits:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,9 +683,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -664,7 +698,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1826,19 +1863,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1848,65 +1887,123 @@
       <c r="C1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:4"/>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9930B823-0840-4748-94F9-34D0A73FD67F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8272B344-99DF-4FAD-8365-FCF134272DA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12504" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="12528" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="632">
   <si>
     <t>Full Name:</t>
   </si>
@@ -625,6 +625,1299 @@
   </si>
   <si>
     <t>Currency Significant Digits:</t>
+  </si>
+  <si>
+    <t>Time Zone:</t>
+  </si>
+  <si>
+    <t>Pacific/Midway (GMT-11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Niue (GMT-11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Pago Pago (GMT-11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Honolulu (GMT-10:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Rarotonga (GMT-10:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Tahiti (GMT-10:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Marquesas (GMT-9:30)</t>
+  </si>
+  <si>
+    <t>America/Adak (GMT-9:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Gambier (GMT-9:00)</t>
+  </si>
+  <si>
+    <t>America/Anchorage (GMT-8:00)</t>
+  </si>
+  <si>
+    <t>America/Juneau (GMT-8:00)</t>
+  </si>
+  <si>
+    <t>America/Metlakatla (GMT-8:00)</t>
+  </si>
+  <si>
+    <t>America/Nome (GMT-8:00)</t>
+  </si>
+  <si>
+    <t>America/Sitka (GMT-8:00)</t>
+  </si>
+  <si>
+    <t>America/Yakutat (GMT-8:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Pitcairn (GMT-8:00)</t>
+  </si>
+  <si>
+    <t>America/Creston (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Dawson (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Dawson Creek (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Fort Nelson (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Hermosillo (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Los Angeles (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Phoenix (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Tijuana (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Vancouver (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Whitehorse (GMT-7:00)</t>
+  </si>
+  <si>
+    <t>America/Belize (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Boise (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Cambridge Bay (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Chihuahua (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Costa Rica (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Denver (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Edmonton (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/El Salvador (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Guatemala (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Inuvik (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Managua (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Mazatlan (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Ojinaga (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Regina (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Swift Current (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Tegucigalpa (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Yellowknife (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Galapagos (GMT-6:00)</t>
+  </si>
+  <si>
+    <t>America/Atikokan (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Bahia Banderas (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Bogota (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Cancun (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Cayman (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Chicago (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Eirunepe (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Guayaquil (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Knox (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Tell City (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Jamaica (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Lima (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Matamoros (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Menominee (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Merida (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Mexico City (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Monterrey (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/North Dakota/Beulah (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/North Dakota/Center (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/North Dakota/New Salem (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Panama (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Rainy River (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Rankin Inlet (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Resolute (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Rio Branco (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Winnipeg (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Easter (GMT-5:00)</t>
+  </si>
+  <si>
+    <t>America/Anguilla (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Antigua (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Aruba (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Asuncion (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Barbados (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Blanc-Sablon (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Boa Vista (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Campo Grande (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Caracas (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Cuiaba (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Curacao (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Detroit (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Dominica (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Grand Turk (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Grenada (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Guadeloupe (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Guyana (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Havana (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Indianapolis (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Marengo (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Petersburg (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Vevay (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Vincennes (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Indiana/Winamac (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Iqaluit (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Kentucky/Louisville (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Kentucky/Monticello (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Kralendijk (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/La Paz (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Lower Princes (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Manaus (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Marigot (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Martinique (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Montserrat (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Nassau (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/New York (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Nipigon (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Pangnirtung (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Port of Spain (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Port-au-Prince (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Porto Velho (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Puerto Rico (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Santo Domingo (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/St Barthelemy (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/St Kitts (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/St Lucia (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/St Thomas (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/St Vincent (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Thunder Bay (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Toronto (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Tortola (GMT-4:00)</t>
+  </si>
+  <si>
+    <t>America/Araguaina (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Buenos Aires (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Catamarca (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Cordoba (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Jujuy (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/La Rioja (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Mendoza (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Rio Gallegos (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Salta (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/San Juan (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/San Luis (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Tucuman (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Argentina/Ushuaia (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Bahia (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Belem (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Cayenne (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Fortaleza (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Glace Bay (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Goose Bay (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Halifax (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Maceio (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Moncton (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Montevideo (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Paramaribo (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Punta Arenas (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Recife (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Santarem (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Santiago (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Sao Paulo (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/Thule (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>Antarctica/Palmer (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>Antarctica/Rothera (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Bermuda (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Stanley (GMT-3:00)</t>
+  </si>
+  <si>
+    <t>America/St Johns (GMT-2:30)</t>
+  </si>
+  <si>
+    <t>America/Godthab (GMT-2:00)</t>
+  </si>
+  <si>
+    <t>America/Miquelon (GMT-2:00)</t>
+  </si>
+  <si>
+    <t>America/Noronha (GMT-2:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/South Georgia (GMT-2:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Cape Verde (GMT-1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Abidjan (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Accra (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Bamako (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Banjul (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Bissau (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Conakry (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Dakar (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Freetown (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Lome (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Monrovia (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Nouakchott (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Ouagadougou (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>America/Danmarkshavn (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>America/Scoresbysund (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Azores (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Reykjavik (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/St Helena (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>UTC (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/Algiers (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Bangui (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Brazzaville (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Casablanca (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Douala (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/El Aaiun (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Kinshasa (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Lagos (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Libreville (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Luanda (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Malabo (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Ndjamena (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Niamey (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Porto-Novo (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Sao Tome (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Tunis (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Canary (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Faroe (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Atlantic/Madeira (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Europe/Dublin (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Europe/Guernsey (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Europe/Isle of Man (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Europe/Jersey (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Europe/Lisbon (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Europe/London (GMT+1:00)</t>
+  </si>
+  <si>
+    <t>Africa/Blantyre (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Bujumbura (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Cairo (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Ceuta (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Gaborone (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Harare (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Johannesburg (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Khartoum (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Kigali (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Lubumbashi (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Lusaka (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Maputo (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Maseru (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Mbabane (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Tripoli (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Windhoek (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Antarctica/Troll (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Arctic/Longyearbyen (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Amsterdam (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Andorra (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Belgrade (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Berlin (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Bratislava (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Brussels (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Budapest (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Busingen (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Copenhagen (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Gibraltar (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Kaliningrad (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Ljubljana (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Luxembourg (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Madrid (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Malta (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Monaco (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Oslo (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Paris (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Podgorica (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Prague (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Rome (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/San Marino (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Sarajevo (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Skopje (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Stockholm (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Tirane (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Vaduz (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Vatican (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Vienna (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Warsaw (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Zagreb (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Europe/Zurich (GMT+2:00)</t>
+  </si>
+  <si>
+    <t>Africa/Addis Ababa (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Africa/Asmara (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Africa/Dar es Salaam (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Africa/Djibouti (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Africa/Juba (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Africa/Kampala (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Africa/Mogadishu (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Africa/Nairobi (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Antarctica/Syowa (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Aden (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Amman (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Baghdad (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Bahrain (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Beirut (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Damascus (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Famagusta (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Gaza (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Hebron (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Jerusalem (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Kuwait (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Nicosia (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Qatar (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Riyadh (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Athens (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Bucharest (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Chisinau (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Helsinki (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Istanbul (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Kiev (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Kirov (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Mariehamn (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Minsk (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Moscow (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Riga (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Simferopol (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Sofia (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Tallinn (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Uzhgorod (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Vilnius (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Volgograd (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Europe/Zaporozhye (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Indian/Antananarivo (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Indian/Comoro (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Indian/Mayotte (GMT+3:00)</t>
+  </si>
+  <si>
+    <t>Asia/Baku (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Asia/Dubai (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Asia/Muscat (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Asia/Tbilisi (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Asia/Yerevan (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Europe/Astrakhan (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Europe/Samara (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Europe/Saratov (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Europe/Ulyanovsk (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Indian/Mahe (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Indian/Mauritius (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Indian/Reunion (GMT+4:00)</t>
+  </si>
+  <si>
+    <t>Asia/Kabul (GMT+4:30)</t>
+  </si>
+  <si>
+    <t>Asia/Tehran (GMT+4:30)</t>
+  </si>
+  <si>
+    <t>Antarctica/Mawson (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Aqtau (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Aqtobe (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Ashgabat (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Atyrau (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Dushanbe (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Karachi (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Oral (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Samarkand (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Tashkent (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Yekaterinburg (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Indian/Kerguelen (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Indian/Maldives (GMT+5:00)</t>
+  </si>
+  <si>
+    <t>Asia/Colombo (GMT+5:30)</t>
+  </si>
+  <si>
+    <t>Asia/Kolkata (GMT+5:30)</t>
+  </si>
+  <si>
+    <t>Asia/Kathmandu (GMT+5:45)</t>
+  </si>
+  <si>
+    <t>Antarctica/Vostok (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Almaty (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Bishkek (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Dhaka (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Omsk (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Qyzylorda (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Thimphu (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Urumqi (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Indian/Chagos (GMT+6:00)</t>
+  </si>
+  <si>
+    <t>Asia/Yangon (GMT+6:30)</t>
+  </si>
+  <si>
+    <t>Indian/Cocos (GMT+6:30)</t>
+  </si>
+  <si>
+    <t>Antarctica/Davis (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Bangkok (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Barnaul (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Ho Chi Minh (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Hovd (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Jakarta (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Krasnoyarsk (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Novokuznetsk (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Novosibirsk (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Phnom Penh (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Pontianak (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Tomsk (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Asia/Vientiane (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Indian/Christmas (GMT+7:00)</t>
+  </si>
+  <si>
+    <t>Antarctica/Casey (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Brunei (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Choibalsan (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Hong Kong (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Irkutsk (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Kuala Lumpur (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Kuching (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Macau (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Makassar (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Manila (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Shanghai (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Singapore (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Taipei (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Asia/Ulaanbaatar (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Australia/Perth (GMT+8:00)</t>
+  </si>
+  <si>
+    <t>Australia/Eucla (GMT+8:45)</t>
+  </si>
+  <si>
+    <t>Asia/Chita (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Asia/Dili (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Asia/Jayapura (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Asia/Khandyga (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Asia/Pyongyang (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Asia/Seoul (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Asia/Tokyo (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Asia/Yakutsk (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Palau (GMT+9:00)</t>
+  </si>
+  <si>
+    <t>Australia/Adelaide (GMT+9:30)</t>
+  </si>
+  <si>
+    <t>Australia/Broken Hill (GMT+9:30)</t>
+  </si>
+  <si>
+    <t>Australia/Darwin (GMT+9:30)</t>
+  </si>
+  <si>
+    <t>Antarctica/DumontDUrville (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Asia/Ust-Nera (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Asia/Vladivostok (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Australia/Brisbane (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Australia/Currie (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Australia/Hobart (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Australia/Lindeman (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Australia/Melbourne (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Australia/Sydney (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Chuuk (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Guam (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Port Moresby (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Saipan (GMT+10:00)</t>
+  </si>
+  <si>
+    <t>Australia/Lord Howe (GMT+10:30)</t>
+  </si>
+  <si>
+    <t>Antarctica/Macquarie (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Asia/Magadan (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Asia/Sakhalin (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Asia/Srednekolymsk (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Bougainville (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Efate (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Guadalcanal (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Kosrae (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Norfolk (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Noumea (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Pohnpei (GMT+11:00)</t>
+  </si>
+  <si>
+    <t>Antarctica/McMurdo (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Asia/Anadyr (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Asia/Kamchatka (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Auckland (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Fiji (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Funafuti (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Kwajalein (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Majuro (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Nauru (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Tarawa (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Wake (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Wallis (GMT+12:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Chatham (GMT+12:45)</t>
+  </si>
+  <si>
+    <t>Pacific/Apia (GMT+13:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Enderbury (GMT+13:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Fakaofo (GMT+13:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Tongatapu (GMT+13:00)</t>
+  </si>
+  <si>
+    <t>Pacific/Kiritimati (GMT+14:00)</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>DollarCount</t>
+  </si>
+  <si>
+    <t>CommaCount</t>
+  </si>
+  <si>
+    <t>DecmialCount</t>
+  </si>
+  <si>
+    <t>NumberCount</t>
   </si>
 </sst>
 </file>
@@ -632,14 +1925,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,9 +1983,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,10 +1998,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1863,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1875,9 +3176,14 @@
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1893,8 +3199,26 @@
       <c r="E1" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="6" t="s">
         <v>190</v>
       </c>
@@ -1907,8 +3231,23 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="6" t="s">
         <v>191</v>
       </c>
@@ -1921,8 +3260,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" s="6" t="s">
         <v>185</v>
       </c>
@@ -1935,8 +3280,11 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="6" t="s">
         <v>192</v>
       </c>
@@ -1949,8 +3297,11 @@
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" s="6" t="s">
         <v>184</v>
       </c>
@@ -1960,8 +3311,11 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="6" t="s">
         <v>186</v>
       </c>
@@ -1971,8 +3325,11 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="6" t="s">
         <v>187</v>
       </c>
@@ -1982,26 +3339,2113 @@
       <c r="E8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
       <c r="D9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="D11" t="s">
         <v>199</v>
+      </c>
+      <c r="F11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="F13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="F14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="F16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6">
+      <c r="F145" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6">
+      <c r="F156" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6">
+      <c r="F157" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6">
+      <c r="F158" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6">
+      <c r="F159" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6">
+      <c r="F160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6">
+      <c r="F161" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6">
+      <c r="F162" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6">
+      <c r="F163" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6">
+      <c r="F164" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6">
+      <c r="F165" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6">
+      <c r="F170" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6">
+      <c r="F171" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6">
+      <c r="F172" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6">
+      <c r="F173" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6">
+      <c r="F174" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6">
+      <c r="F175" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6">
+      <c r="F176" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6">
+      <c r="F177" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6">
+      <c r="F178" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6">
+      <c r="F180" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6">
+      <c r="F181" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6">
+      <c r="F184" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6">
+      <c r="F187" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6">
+      <c r="F192" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6">
+      <c r="F199" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="200" spans="6:6">
+      <c r="F200" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="6:6">
+      <c r="F203" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6">
+      <c r="F204" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206" spans="6:6">
+      <c r="F206" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="6:6">
+      <c r="F207" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="208" spans="6:6">
+      <c r="F208" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6">
+      <c r="F209" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="210" spans="6:6">
+      <c r="F210" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="211" spans="6:6">
+      <c r="F211" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="212" spans="6:6">
+      <c r="F212" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="6:6">
+      <c r="F213" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="214" spans="6:6">
+      <c r="F214" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="215" spans="6:6">
+      <c r="F215" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="216" spans="6:6">
+      <c r="F216" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="217" spans="6:6">
+      <c r="F217" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="218" spans="6:6">
+      <c r="F218" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="219" spans="6:6">
+      <c r="F219" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="220" spans="6:6">
+      <c r="F220" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="221" spans="6:6">
+      <c r="F221" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="222" spans="6:6">
+      <c r="F222" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="223" spans="6:6">
+      <c r="F223" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="6:6">
+      <c r="F224" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="225" spans="6:6">
+      <c r="F225" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="226" spans="6:6">
+      <c r="F226" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="227" spans="6:6">
+      <c r="F227" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="228" spans="6:6">
+      <c r="F228" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="229" spans="6:6">
+      <c r="F229" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="230" spans="6:6">
+      <c r="F230" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="231" spans="6:6">
+      <c r="F231" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="232" spans="6:6">
+      <c r="F232" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="233" spans="6:6">
+      <c r="F233" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="234" spans="6:6">
+      <c r="F234" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="235" spans="6:6">
+      <c r="F235" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="236" spans="6:6">
+      <c r="F236" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="237" spans="6:6">
+      <c r="F237" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="238" spans="6:6">
+      <c r="F238" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="239" spans="6:6">
+      <c r="F239" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="240" spans="6:6">
+      <c r="F240" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="241" spans="6:6">
+      <c r="F241" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="242" spans="6:6">
+      <c r="F242" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="243" spans="6:6">
+      <c r="F243" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="244" spans="6:6">
+      <c r="F244" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="245" spans="6:6">
+      <c r="F245" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="246" spans="6:6">
+      <c r="F246" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="247" spans="6:6">
+      <c r="F247" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="248" spans="6:6">
+      <c r="F248" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="249" spans="6:6">
+      <c r="F249" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="250" spans="6:6">
+      <c r="F250" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="251" spans="6:6">
+      <c r="F251" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="252" spans="6:6">
+      <c r="F252" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="253" spans="6:6">
+      <c r="F253" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="254" spans="6:6">
+      <c r="F254" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="255" spans="6:6">
+      <c r="F255" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="256" spans="6:6">
+      <c r="F256" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="257" spans="6:6">
+      <c r="F257" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="258" spans="6:6">
+      <c r="F258" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="259" spans="6:6">
+      <c r="F259" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="260" spans="6:6">
+      <c r="F260" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="261" spans="6:6">
+      <c r="F261" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="262" spans="6:6">
+      <c r="F262" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="263" spans="6:6">
+      <c r="F263" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="264" spans="6:6">
+      <c r="F264" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="265" spans="6:6">
+      <c r="F265" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="266" spans="6:6">
+      <c r="F266" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="267" spans="6:6">
+      <c r="F267" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="268" spans="6:6">
+      <c r="F268" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="269" spans="6:6">
+      <c r="F269" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="270" spans="6:6">
+      <c r="F270" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="271" spans="6:6">
+      <c r="F271" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="272" spans="6:6">
+      <c r="F272" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="273" spans="6:6">
+      <c r="F273" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="274" spans="6:6">
+      <c r="F274" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="275" spans="6:6">
+      <c r="F275" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="276" spans="6:6">
+      <c r="F276" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="277" spans="6:6">
+      <c r="F277" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="278" spans="6:6">
+      <c r="F278" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="279" spans="6:6">
+      <c r="F279" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="280" spans="6:6">
+      <c r="F280" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="281" spans="6:6">
+      <c r="F281" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="282" spans="6:6">
+      <c r="F282" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="283" spans="6:6">
+      <c r="F283" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="284" spans="6:6">
+      <c r="F284" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="285" spans="6:6">
+      <c r="F285" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="286" spans="6:6">
+      <c r="F286" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="287" spans="6:6">
+      <c r="F287" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="288" spans="6:6">
+      <c r="F288" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="289" spans="6:6">
+      <c r="F289" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="290" spans="6:6">
+      <c r="F290" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="291" spans="6:6">
+      <c r="F291" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="292" spans="6:6">
+      <c r="F292" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="293" spans="6:6">
+      <c r="F293" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="294" spans="6:6">
+      <c r="F294" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="295" spans="6:6">
+      <c r="F295" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="296" spans="6:6">
+      <c r="F296" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="297" spans="6:6">
+      <c r="F297" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="298" spans="6:6">
+      <c r="F298" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="299" spans="6:6">
+      <c r="F299" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="300" spans="6:6">
+      <c r="F300" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="301" spans="6:6">
+      <c r="F301" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="302" spans="6:6">
+      <c r="F302" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="303" spans="6:6">
+      <c r="F303" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="304" spans="6:6">
+      <c r="F304" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="305" spans="6:6">
+      <c r="F305" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="306" spans="6:6">
+      <c r="F306" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="307" spans="6:6">
+      <c r="F307" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="308" spans="6:6">
+      <c r="F308" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="309" spans="6:6">
+      <c r="F309" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="310" spans="6:6">
+      <c r="F310" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="311" spans="6:6">
+      <c r="F311" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="312" spans="6:6">
+      <c r="F312" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="313" spans="6:6">
+      <c r="F313" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="314" spans="6:6">
+      <c r="F314" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="315" spans="6:6">
+      <c r="F315" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="316" spans="6:6">
+      <c r="F316" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="317" spans="6:6">
+      <c r="F317" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="318" spans="6:6">
+      <c r="F318" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="319" spans="6:6">
+      <c r="F319" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="320" spans="6:6">
+      <c r="F320" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="321" spans="6:6">
+      <c r="F321" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="322" spans="6:6">
+      <c r="F322" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="323" spans="6:6">
+      <c r="F323" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="324" spans="6:6">
+      <c r="F324" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="325" spans="6:6">
+      <c r="F325" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="326" spans="6:6">
+      <c r="F326" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="327" spans="6:6">
+      <c r="F327" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="328" spans="6:6">
+      <c r="F328" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="329" spans="6:6">
+      <c r="F329" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="330" spans="6:6">
+      <c r="F330" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="331" spans="6:6">
+      <c r="F331" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="332" spans="6:6">
+      <c r="F332" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="333" spans="6:6">
+      <c r="F333" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="334" spans="6:6">
+      <c r="F334" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="335" spans="6:6">
+      <c r="F335" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="336" spans="6:6">
+      <c r="F336" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="337" spans="6:6">
+      <c r="F337" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="338" spans="6:6">
+      <c r="F338" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="339" spans="6:6">
+      <c r="F339" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="340" spans="6:6">
+      <c r="F340" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="341" spans="6:6">
+      <c r="F341" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="342" spans="6:6">
+      <c r="F342" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="343" spans="6:6">
+      <c r="F343" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="344" spans="6:6">
+      <c r="F344" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="345" spans="6:6">
+      <c r="F345" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="346" spans="6:6">
+      <c r="F346" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="347" spans="6:6">
+      <c r="F347" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="348" spans="6:6">
+      <c r="F348" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="349" spans="6:6">
+      <c r="F349" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="350" spans="6:6">
+      <c r="F350" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="351" spans="6:6">
+      <c r="F351" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="352" spans="6:6">
+      <c r="F352" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="353" spans="6:6">
+      <c r="F353" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="354" spans="6:6">
+      <c r="F354" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="355" spans="6:6">
+      <c r="F355" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="356" spans="6:6">
+      <c r="F356" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="357" spans="6:6">
+      <c r="F357" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="358" spans="6:6">
+      <c r="F358" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="359" spans="6:6">
+      <c r="F359" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="360" spans="6:6">
+      <c r="F360" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="361" spans="6:6">
+      <c r="F361" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="362" spans="6:6">
+      <c r="F362" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="363" spans="6:6">
+      <c r="F363" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="364" spans="6:6">
+      <c r="F364" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="365" spans="6:6">
+      <c r="F365" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="366" spans="6:6">
+      <c r="F366" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="367" spans="6:6">
+      <c r="F367" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="368" spans="6:6">
+      <c r="F368" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="369" spans="6:6">
+      <c r="F369" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="370" spans="6:6">
+      <c r="F370" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="371" spans="6:6">
+      <c r="F371" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="372" spans="6:6">
+      <c r="F372" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="373" spans="6:6">
+      <c r="F373" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="374" spans="6:6">
+      <c r="F374" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="375" spans="6:6">
+      <c r="F375" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="376" spans="6:6">
+      <c r="F376" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="377" spans="6:6">
+      <c r="F377" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="378" spans="6:6">
+      <c r="F378" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="379" spans="6:6">
+      <c r="F379" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="380" spans="6:6">
+      <c r="F380" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="381" spans="6:6">
+      <c r="F381" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="382" spans="6:6">
+      <c r="F382" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="383" spans="6:6">
+      <c r="F383" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="384" spans="6:6">
+      <c r="F384" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="385" spans="6:6">
+      <c r="F385" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="386" spans="6:6">
+      <c r="F386" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="387" spans="6:6">
+      <c r="F387" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="388" spans="6:6">
+      <c r="F388" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="389" spans="6:6">
+      <c r="F389" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="390" spans="6:6">
+      <c r="F390" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="391" spans="6:6">
+      <c r="F391" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="392" spans="6:6">
+      <c r="F392" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="393" spans="6:6">
+      <c r="F393" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="394" spans="6:6">
+      <c r="F394" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="395" spans="6:6">
+      <c r="F395" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="396" spans="6:6">
+      <c r="F396" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="397" spans="6:6">
+      <c r="F397" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="398" spans="6:6">
+      <c r="F398" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="399" spans="6:6">
+      <c r="F399" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="400" spans="6:6">
+      <c r="F400" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="401" spans="6:6">
+      <c r="F401" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="402" spans="6:6">
+      <c r="F402" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="403" spans="6:6">
+      <c r="F403" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="404" spans="6:6">
+      <c r="F404" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="405" spans="6:6">
+      <c r="F405" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="406" spans="6:6">
+      <c r="F406" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="407" spans="6:6">
+      <c r="F407" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="408" spans="6:6">
+      <c r="F408" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="409" spans="6:6">
+      <c r="F409" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="410" spans="6:6">
+      <c r="F410" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="411" spans="6:6">
+      <c r="F411" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="412" spans="6:6">
+      <c r="F412" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="413" spans="6:6">
+      <c r="F413" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="414" spans="6:6">
+      <c r="F414" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="415" spans="6:6">
+      <c r="F415" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="416" spans="6:6">
+      <c r="F416" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="417" spans="6:6">
+      <c r="F417" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="418" spans="6:6">
+      <c r="F418" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="419" spans="6:6">
+      <c r="F419" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="420" spans="6:6">
+      <c r="F420" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="421" spans="6:6">
+      <c r="F421" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="422" spans="6:6">
+      <c r="F422" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="423" spans="6:6">
+      <c r="F423" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="424" spans="6:6">
+      <c r="F424" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="425" spans="6:6">
+      <c r="F425" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="426" spans="6:6">
+      <c r="F426" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8272B344-99DF-4FAD-8365-FCF134272DA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D4BA02CD-C049-43F4-932E-06CD230472BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12528" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="12552" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="634">
   <si>
     <t>Full Name:</t>
   </si>
@@ -1918,6 +1918,12 @@
   </si>
   <si>
     <t>NumberCount</t>
+  </si>
+  <si>
+    <t>1000s separator:</t>
+  </si>
+  <si>
+    <t>Name Display Format:</t>
   </si>
 </sst>
 </file>
@@ -3164,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
-  <dimension ref="A1:K426"/>
+  <dimension ref="A1:M426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3181,9 +3187,11 @@
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -3217,8 +3225,14 @@
       <c r="K1" s="10" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="6" t="s">
         <v>190</v>
       </c>
@@ -3246,8 +3260,11 @@
       <c r="K2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" s="6" t="s">
         <v>191</v>
       </c>
@@ -3267,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="B4" s="6" t="s">
         <v>185</v>
       </c>
@@ -3284,7 +3301,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="B5" s="6" t="s">
         <v>192</v>
       </c>
@@ -3301,7 +3318,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="B6" s="6" t="s">
         <v>184</v>
       </c>
@@ -3315,7 +3332,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="B7" s="6" t="s">
         <v>186</v>
       </c>
@@ -3329,7 +3346,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="B8" s="6" t="s">
         <v>187</v>
       </c>
@@ -3343,7 +3360,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
@@ -3354,7 +3371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="B10" s="6" t="s">
         <v>189</v>
       </c>
@@ -3365,7 +3382,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="D11" t="s">
         <v>199</v>
       </c>
@@ -3373,27 +3390,27 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="F12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="F13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="F14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="F15" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="F16" t="s">
         <v>216</v>
       </c>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D4BA02CD-C049-43F4-932E-06CD230472BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{159B63F6-B77B-4435-8B9C-10863C10F7B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12552" windowHeight="13224" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="12648" windowHeight="13224" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="Advanced" sheetId="4" r:id="rId4"/>
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Locale Settings" sheetId="7" r:id="rId6"/>
+    <sheet name="Calrendar" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:G11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="670">
   <si>
     <t>Full Name:</t>
   </si>
@@ -1924,6 +1925,114 @@
   </si>
   <si>
     <t>Name Display Format:</t>
+  </si>
+  <si>
+    <t>NameFormat</t>
+  </si>
+  <si>
+    <t>Dr. David Livingstone</t>
+  </si>
+  <si>
+    <t>David Livingstone</t>
+  </si>
+  <si>
+    <t>Dr. Livingstone</t>
+  </si>
+  <si>
+    <t>Livingstone, Dr. David</t>
+  </si>
+  <si>
+    <t>Livingstone, David</t>
+  </si>
+  <si>
+    <t>Dr. Livingstone, David</t>
+  </si>
+  <si>
+    <t>Livingstone Dr. David</t>
+  </si>
+  <si>
+    <t>Livingstone David Dr.</t>
+  </si>
+  <si>
+    <t>Decimal Symbol:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Calendar Options</t>
+  </si>
+  <si>
+    <t>Publish Key:</t>
+  </si>
+  <si>
+    <t>Publish at my location:</t>
+  </si>
+  <si>
+    <t>https://dev.filtasymphony.com/vcal_server.php/type=vfb&amp;source=outlook&amp;key=&amp;</t>
+  </si>
+  <si>
+    <t>Search location:</t>
+  </si>
+  <si>
+    <t>https://dev.filtasymphony.com/vcal_server.php/type=vfb&amp;email=%NAME%@%SERVER%</t>
+  </si>
+  <si>
+    <t>iCal integration URL:</t>
+  </si>
+  <si>
+    <t>https://dev.filtasymphony.com/ical_server.php?type=ics&amp;key=%MYSECRETKEY%&amp;user_name=%MYUSERNAME%</t>
+  </si>
+  <si>
+    <t>First Day of Week:</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>https://dev.filtasymphony.com/vcal_server.php/type=vfb&amp;source=outlook&amp;key=&amp;email=</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>User Settings</t>
+  </si>
+  <si>
+    <t>rgba(38, 146, 193, 1)</t>
+  </si>
+  <si>
+    <t>Set a default for reminders for calls and meetings. Pop-up notifications appear for all invitees using Sugar. Email reminders are sent to all invitees.</t>
+  </si>
+  <si>
+    <t>URL:</t>
+  </si>
+  <si>
+    <t>https://dev.filtasymphony.com</t>
+  </si>
+  <si>
+    <t>Use this URL when establishing login settings for the Sugar Plug-in for Microsoft® Outlook® and the Sugar Plug-in for Microsoft® Word®.</t>
+  </si>
+  <si>
+    <t>Set the display format for date stamps</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +2042,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,6 +2077,14 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1986,10 +2103,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2004,13 +2122,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2628,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2529E99-3994-4FEC-84DB-7D56DC629B9D}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2640,12 +2760,17 @@
     <col min="2" max="2" width="63.88671875" customWidth="1"/>
     <col min="3" max="3" width="60.88671875" customWidth="1"/>
     <col min="4" max="4" width="47.109375" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="5" max="5" width="121.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="10" max="10" width="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -2667,8 +2792,23 @@
       <c r="G1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2">
+      <c r="H1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.2">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
@@ -2690,8 +2830,20 @@
       <c r="G2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2704,124 +2856,136 @@
       <c r="G3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="E4" t="s">
+        <v>665</v>
+      </c>
       <c r="G4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="G5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="G6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="G7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="G8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="G9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="G10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:12">
       <c r="G11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:12">
       <c r="G12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:12">
       <c r="G13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:12">
       <c r="G14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:12">
       <c r="G15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:12">
       <c r="G16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="7:10">
       <c r="G17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:10">
       <c r="G18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="7:10">
       <c r="G19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
+    <row r="20" spans="7:10">
       <c r="G20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
+    <row r="21" spans="7:10">
       <c r="G21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="7:10">
       <c r="G22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="7:10">
       <c r="G23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="7:7">
+    <row r="24" spans="7:10">
       <c r="G24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="7:7">
+    <row r="25" spans="7:10">
       <c r="G25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="7:10">
       <c r="G26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="7:7"/>
+    <row r="27" spans="7:10"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{1E965B88-7B1A-4238-8439-55F104A0D038}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3170,16 +3334,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
-  <dimension ref="A1:M426"/>
+  <dimension ref="A1:O426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
@@ -3189,9 +3353,10 @@
     <col min="10" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -3204,7 +3369,7 @@
       <c r="D1" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>200</v>
       </c>
       <c r="F1" t="s">
@@ -3219,10 +3384,10 @@
       <c r="I1" t="s">
         <v>629</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>631</v>
       </c>
       <c r="L1" t="s">
@@ -3231,15 +3396,24 @@
       <c r="M1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="6" t="s">
+      <c r="N1" t="s">
+        <v>634</v>
+      </c>
+      <c r="O1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.95833333333333337</v>
       </c>
       <c r="E2">
@@ -3263,15 +3437,21 @@
       <c r="L2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="6" t="s">
+      <c r="N2" t="s">
+        <v>635</v>
+      </c>
+      <c r="O2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="11" t="s">
         <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>194</v>
       </c>
       <c r="E3">
@@ -3283,15 +3463,18 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="6" t="s">
+      <c r="N3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>195</v>
       </c>
       <c r="E4">
@@ -3300,15 +3483,18 @@
       <c r="F4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="6" t="s">
+      <c r="N4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="11" t="s">
         <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.95833333333333337</v>
       </c>
       <c r="E5">
@@ -3317,12 +3503,15 @@
       <c r="F5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="6" t="s">
+      <c r="N5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.95833333333333337</v>
       </c>
       <c r="E6">
@@ -3331,9 +3520,12 @@
       <c r="F6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="6" t="s">
+      <c r="N6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="11" t="s">
         <v>186</v>
       </c>
       <c r="D7">
@@ -3345,9 +3537,12 @@
       <c r="F7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="6" t="s">
+      <c r="N7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D8" t="s">
@@ -3359,9 +3554,12 @@
       <c r="F8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="6" t="s">
+      <c r="N8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="11" t="s">
         <v>188</v>
       </c>
       <c r="D9" t="s">
@@ -3370,9 +3568,12 @@
       <c r="F9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="6" t="s">
+      <c r="N9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="11" t="s">
         <v>189</v>
       </c>
       <c r="D10" t="s">
@@ -3382,7 +3583,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15" ht="28.8">
+      <c r="B11" s="5" t="s">
+        <v>669</v>
+      </c>
       <c r="D11" t="s">
         <v>199</v>
       </c>
@@ -3390,27 +3594,27 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="F12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="F13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="F14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="F15" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="F16" t="s">
         <v>216</v>
       </c>
@@ -5469,4 +5673,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34BEBD9-9A59-4F8D-9149-B3960450026A}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{10CA1519-C6DA-4BDC-8F0D-5DA412F8DB6B}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{691C8A07-B49A-4C7B-A99D-A41C7447BE34}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{0BEADA33-4E5F-4E4D-8712-4A3A8A7EBCDE}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{C3483B51-D18C-4144-A3E9-F0220172F4B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{159B63F6-B77B-4435-8B9C-10863C10F7B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{72525925-E9AE-4C32-A64E-EDA3B73F665F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="12648" windowHeight="13224" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="12744" windowHeight="13224" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="682">
   <si>
     <t>Full Name:</t>
   </si>
@@ -2033,6 +2033,42 @@
   </si>
   <si>
     <t>Set the display format for date stamps</t>
+  </si>
+  <si>
+    <t>Set the display format for time stamps</t>
+  </si>
+  <si>
+    <t>Select the currency that will be displayed by default when you create new records. This is also the currency that will be displayed in the Amount columns in the Opportunities ListView.</t>
+  </si>
+  <si>
+    <t>Number of decimal places to show for currency</t>
+  </si>
+  <si>
+    <t>Character used to separate thousands</t>
+  </si>
+  <si>
+    <t>Character used to separate decimal portion</t>
+  </si>
+  <si>
+    <t>[Salutation]</t>
+  </si>
+  <si>
+    <t>[First]</t>
+  </si>
+  <si>
+    <t>[Last]</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Livingstone</t>
+  </si>
+  <si>
+    <t>Set how names will be displayed.</t>
   </si>
 </sst>
 </file>
@@ -3336,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
   <dimension ref="A1:O426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3351,7 +3387,7 @@
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3437,6 +3473,9 @@
       <c r="L2" t="s">
         <v>80</v>
       </c>
+      <c r="M2" t="s">
+        <v>675</v>
+      </c>
       <c r="N2" t="s">
         <v>635</v>
       </c>
@@ -3463,8 +3502,17 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>673</v>
+      </c>
+      <c r="M3" t="s">
+        <v>676</v>
+      </c>
       <c r="N3" t="s">
         <v>636</v>
+      </c>
+      <c r="O3" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3483,6 +3531,9 @@
       <c r="F4" t="s">
         <v>204</v>
       </c>
+      <c r="M4" t="s">
+        <v>677</v>
+      </c>
       <c r="N4" t="s">
         <v>637</v>
       </c>
@@ -3503,6 +3554,9 @@
       <c r="F5" t="s">
         <v>205</v>
       </c>
+      <c r="M5" t="s">
+        <v>678</v>
+      </c>
       <c r="N5" t="s">
         <v>638</v>
       </c>
@@ -3511,6 +3565,9 @@
       <c r="B6" s="11" t="s">
         <v>184</v>
       </c>
+      <c r="C6" t="s">
+        <v>671</v>
+      </c>
       <c r="D6" s="6">
         <v>0.95833333333333337</v>
       </c>
@@ -3519,6 +3576,9 @@
       </c>
       <c r="F6" t="s">
         <v>206</v>
+      </c>
+      <c r="M6" t="s">
+        <v>679</v>
       </c>
       <c r="N6" t="s">
         <v>639</v>
@@ -3537,6 +3597,9 @@
       <c r="F7" t="s">
         <v>207</v>
       </c>
+      <c r="M7" t="s">
+        <v>680</v>
+      </c>
       <c r="N7" t="s">
         <v>640</v>
       </c>
@@ -3554,6 +3617,9 @@
       <c r="F8" t="s">
         <v>208</v>
       </c>
+      <c r="M8" t="s">
+        <v>681</v>
+      </c>
       <c r="N8" t="s">
         <v>641</v>
       </c>
@@ -3565,6 +3631,9 @@
       <c r="D9" t="s">
         <v>197</v>
       </c>
+      <c r="E9" t="s">
+        <v>672</v>
+      </c>
       <c r="F9" t="s">
         <v>209</v>
       </c>
@@ -3595,6 +3664,9 @@
       </c>
     </row>
     <row r="12" spans="1:15">
+      <c r="D12" t="s">
+        <v>670</v>
+      </c>
       <c r="F12" t="s">
         <v>212</v>
       </c>

--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{72525925-E9AE-4C32-A64E-EDA3B73F665F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C78812B7-F200-421E-BE37-D9D56176EBA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="12744" windowHeight="13224" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12816" windowHeight="13224" tabRatio="703" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,15 @@
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Locale Settings" sheetId="7" r:id="rId6"/>
     <sheet name="Calrendar" sheetId="8" r:id="rId7"/>
+    <sheet name="Access" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G11"/>
+  <oleSize ref="A1:K6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="736">
   <si>
     <t>Full Name:</t>
   </si>
@@ -1180,15 +1181,9 @@
     <t>Africa/Brazzaville (GMT+1:00)</t>
   </si>
   <si>
-    <t>Africa/Casablanca (GMT+1:00)</t>
-  </si>
-  <si>
     <t>Africa/Douala (GMT+1:00)</t>
   </si>
   <si>
-    <t>Africa/El Aaiun (GMT+1:00)</t>
-  </si>
-  <si>
     <t>Africa/Kinshasa (GMT+1:00)</t>
   </si>
   <si>
@@ -2069,6 +2064,174 @@
   </si>
   <si>
     <t>Set how names will be displayed.</t>
+  </si>
+  <si>
+    <t>Africa/Casablanca (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Africa/El Aaiun (GMT+0:00)</t>
+  </si>
+  <si>
+    <t>Choose a key to prevent unauthorized publishing of your calendar</t>
+  </si>
+  <si>
+    <t>First Day displayed in Week, Month, and Year Views</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Mass Update</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Fry Service</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Email Templates</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Loan Payments</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>New Oil Inventory</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>User Locales</t>
+  </si>
+  <si>
+    <t>Custom Fryers</t>
+  </si>
+  <si>
+    <t>EIR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Service Feedback</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Help Texts</t>
+  </si>
+  <si>
+    <t>Debit / Credit Line Items</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Discount &amp; Rebate for Legacy Custome</t>
+  </si>
+  <si>
+    <t>NCA Ledger</t>
+  </si>
+  <si>
+    <t>QBO Prefrences</t>
+  </si>
+  <si>
+    <t>Tax Codes</t>
+  </si>
+  <si>
+    <t>Tax Rates</t>
+  </si>
+  <si>
+    <t>Map Address Cache</t>
+  </si>
+  <si>
+    <t>Map Areas</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Map Markers</t>
+  </si>
+  <si>
+    <t>Field Rules</t>
+  </si>
+  <si>
+    <t>Tech Leads</t>
+  </si>
+  <si>
+    <t>Tech Referral Sites</t>
+  </si>
+  <si>
+    <t>Tech Questions</t>
+  </si>
+  <si>
+    <t>Van Address</t>
+  </si>
+  <si>
+    <t>Zucker Listing Template</t>
+  </si>
+  <si>
+    <t>Zucker Query Template</t>
+  </si>
+  <si>
+    <t>Zucker Report Container</t>
+  </si>
+  <si>
+    <t>Zucker Report Template</t>
+  </si>
+  <si>
+    <t>Zucker Runnable Report</t>
+  </si>
+  <si>
+    <t>Zucker Word Template</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>rgba(34, 34, 34, 1)</t>
   </si>
 </sst>
 </file>
@@ -2078,12 +2241,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2141,11 +2311,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2159,11 +2329,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2829,10 +3000,10 @@
         <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J1" t="s">
         <v>81</v>
@@ -2841,7 +3012,7 @@
         <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.2">
@@ -2867,7 +3038,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>61</v>
@@ -2876,7 +3047,7 @@
         <v>82</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2896,12 +3067,12 @@
         <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="E4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G4" t="s">
         <v>92</v>
@@ -3028,9 +3199,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406C1DD-DBF3-427E-BFC6-231D11408D62}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3217,7 @@
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -3071,8 +3242,14 @@
       <c r="H1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8">
+      <c r="I1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
@@ -3085,73 +3262,76 @@
       <c r="H2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="H3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="H4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="H5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="H6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="H7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="H8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="H9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="H10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="H11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="H12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="H13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="H14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="H15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="H16" t="s">
         <v>140</v>
       </c>
@@ -3372,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5998B-83E2-47AF-BECD-56AE97FCC386}">
   <dimension ref="A1:O426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3382,7 +3562,7 @@
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
@@ -3412,31 +3592,31 @@
         <v>201</v>
       </c>
       <c r="G1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I1" t="s">
         <v>627</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" t="s">
         <v>630</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" t="s">
         <v>631</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>632</v>
       </c>
-      <c r="M1" t="s">
-        <v>633</v>
-      </c>
-      <c r="N1" t="s">
-        <v>634</v>
-      </c>
       <c r="O1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3474,13 +3654,13 @@
         <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3503,16 +3683,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3532,10 +3712,10 @@
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3555,10 +3735,10 @@
         <v>205</v>
       </c>
       <c r="M5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3566,7 +3746,7 @@
         <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D6" s="6">
         <v>0.95833333333333337</v>
@@ -3578,10 +3758,10 @@
         <v>206</v>
       </c>
       <c r="M6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3598,10 +3778,10 @@
         <v>207</v>
       </c>
       <c r="M7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3618,10 +3798,10 @@
         <v>208</v>
       </c>
       <c r="M8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3632,13 +3812,13 @@
         <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F9" t="s">
         <v>209</v>
       </c>
       <c r="N9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3654,7 +3834,7 @@
     </row>
     <row r="11" spans="1:15" ht="28.8">
       <c r="B11" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D11" t="s">
         <v>199</v>
@@ -3665,7 +3845,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="D12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F12" t="s">
         <v>212</v>
@@ -4453,1292 +4633,1292 @@
     </row>
     <row r="169" spans="6:6">
       <c r="F169" t="s">
-        <v>369</v>
+        <v>680</v>
       </c>
     </row>
     <row r="170" spans="6:6">
       <c r="F170" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171" spans="6:6">
       <c r="F171" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="172" spans="6:6">
       <c r="F172" t="s">
-        <v>372</v>
+        <v>681</v>
       </c>
     </row>
     <row r="173" spans="6:6">
       <c r="F173" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="6:6">
       <c r="F174" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" spans="6:6">
       <c r="F175" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="6:6">
       <c r="F176" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="6:6">
       <c r="F177" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="178" spans="6:6">
       <c r="F178" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179" spans="6:6">
       <c r="F179" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" spans="6:6">
       <c r="F180" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="6:6">
       <c r="F181" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="183" spans="6:6">
       <c r="F183" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="6:6">
       <c r="F184" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="6:6">
       <c r="F186" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="187" spans="6:6">
       <c r="F187" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="188" spans="6:6">
       <c r="F188" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="6:6">
       <c r="F189" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" spans="6:6">
       <c r="F190" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="6:6">
       <c r="F191" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="6:6">
       <c r="F192" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="193" spans="6:6">
       <c r="F193" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="6:6">
       <c r="F194" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="6:6">
       <c r="F195" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="6:6">
       <c r="F196" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="197" spans="6:6">
       <c r="F197" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="198" spans="6:6">
       <c r="F198" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="199" spans="6:6">
       <c r="F199" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="200" spans="6:6">
       <c r="F200" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="6:6">
       <c r="F201" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="6:6">
       <c r="F202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="6:6">
       <c r="F203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="6:6">
       <c r="F204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="6:6">
       <c r="F205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="206" spans="6:6">
       <c r="F206" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="6:6">
       <c r="F207" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="208" spans="6:6">
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209" spans="6:6">
       <c r="F209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="210" spans="6:6">
       <c r="F210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="211" spans="6:6">
       <c r="F211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="212" spans="6:6">
       <c r="F212" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="213" spans="6:6">
       <c r="F213" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="214" spans="6:6">
       <c r="F214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215" spans="6:6">
       <c r="F215" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="216" spans="6:6">
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="217" spans="6:6">
       <c r="F217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="218" spans="6:6">
       <c r="F218" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="219" spans="6:6">
       <c r="F219" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="220" spans="6:6">
       <c r="F220" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="221" spans="6:6">
       <c r="F221" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="222" spans="6:6">
       <c r="F222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223" spans="6:6">
       <c r="F223" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="224" spans="6:6">
       <c r="F224" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="225" spans="6:6">
       <c r="F225" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="226" spans="6:6">
       <c r="F226" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="227" spans="6:6">
       <c r="F227" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="228" spans="6:6">
       <c r="F228" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="229" spans="6:6">
       <c r="F229" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="230" spans="6:6">
       <c r="F230" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="231" spans="6:6">
       <c r="F231" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="232" spans="6:6">
       <c r="F232" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="233" spans="6:6">
       <c r="F233" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234" spans="6:6">
       <c r="F234" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="235" spans="6:6">
       <c r="F235" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="236" spans="6:6">
       <c r="F236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="237" spans="6:6">
       <c r="F237" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="238" spans="6:6">
       <c r="F238" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="239" spans="6:6">
       <c r="F239" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="240" spans="6:6">
       <c r="F240" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="241" spans="6:6">
       <c r="F241" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="242" spans="6:6">
       <c r="F242" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="243" spans="6:6">
       <c r="F243" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="244" spans="6:6">
       <c r="F244" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="6:6">
       <c r="F245" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="246" spans="6:6">
       <c r="F246" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="247" spans="6:6">
       <c r="F247" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="248" spans="6:6">
       <c r="F248" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="249" spans="6:6">
       <c r="F249" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" spans="6:6">
       <c r="F250" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="251" spans="6:6">
       <c r="F251" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="252" spans="6:6">
       <c r="F252" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="253" spans="6:6">
       <c r="F253" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="254" spans="6:6">
       <c r="F254" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="255" spans="6:6">
       <c r="F255" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="256" spans="6:6">
       <c r="F256" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="257" spans="6:6">
       <c r="F257" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="258" spans="6:6">
       <c r="F258" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="259" spans="6:6">
       <c r="F259" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="260" spans="6:6">
       <c r="F260" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="261" spans="6:6">
       <c r="F261" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="262" spans="6:6">
       <c r="F262" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="263" spans="6:6">
       <c r="F263" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="264" spans="6:6">
       <c r="F264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265" spans="6:6">
       <c r="F265" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" spans="6:6">
       <c r="F266" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="267" spans="6:6">
       <c r="F267" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="268" spans="6:6">
       <c r="F268" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="269" spans="6:6">
       <c r="F269" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="270" spans="6:6">
       <c r="F270" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="271" spans="6:6">
       <c r="F271" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="272" spans="6:6">
       <c r="F272" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="273" spans="6:6">
       <c r="F273" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="274" spans="6:6">
       <c r="F274" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="275" spans="6:6">
       <c r="F275" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="276" spans="6:6">
       <c r="F276" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="277" spans="6:6">
       <c r="F277" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="278" spans="6:6">
       <c r="F278" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="279" spans="6:6">
       <c r="F279" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="280" spans="6:6">
       <c r="F280" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="281" spans="6:6">
       <c r="F281" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="282" spans="6:6">
       <c r="F282" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="283" spans="6:6">
       <c r="F283" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="6:6">
       <c r="F284" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="285" spans="6:6">
       <c r="F285" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="286" spans="6:6">
       <c r="F286" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="6:6">
       <c r="F287" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="288" spans="6:6">
       <c r="F288" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="6:6">
       <c r="F289" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="290" spans="6:6">
       <c r="F290" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="291" spans="6:6">
       <c r="F291" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="292" spans="6:6">
       <c r="F292" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="293" spans="6:6">
       <c r="F293" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="294" spans="6:6">
       <c r="F294" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="295" spans="6:6">
       <c r="F295" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="6:6">
       <c r="F296" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="297" spans="6:6">
       <c r="F297" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="298" spans="6:6">
       <c r="F298" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="299" spans="6:6">
       <c r="F299" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="300" spans="6:6">
       <c r="F300" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="301" spans="6:6">
       <c r="F301" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="302" spans="6:6">
       <c r="F302" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="303" spans="6:6">
       <c r="F303" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="304" spans="6:6">
       <c r="F304" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305" spans="6:6">
       <c r="F305" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="307" spans="6:6">
       <c r="F307" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="308" spans="6:6">
       <c r="F308" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="309" spans="6:6">
       <c r="F309" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="310" spans="6:6">
       <c r="F310" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="311" spans="6:6">
       <c r="F311" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="312" spans="6:6">
       <c r="F312" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="313" spans="6:6">
       <c r="F313" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="314" spans="6:6">
       <c r="F314" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="315" spans="6:6">
       <c r="F315" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="316" spans="6:6">
       <c r="F316" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="317" spans="6:6">
       <c r="F317" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="318" spans="6:6">
       <c r="F318" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="319" spans="6:6">
       <c r="F319" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="320" spans="6:6">
       <c r="F320" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="321" spans="6:6">
       <c r="F321" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="322" spans="6:6">
       <c r="F322" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="323" spans="6:6">
       <c r="F323" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="324" spans="6:6">
       <c r="F324" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="325" spans="6:6">
       <c r="F325" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="326" spans="6:6">
       <c r="F326" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="327" spans="6:6">
       <c r="F327" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="328" spans="6:6">
       <c r="F328" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="329" spans="6:6">
       <c r="F329" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="330" spans="6:6">
       <c r="F330" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="331" spans="6:6">
       <c r="F331" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="332" spans="6:6">
       <c r="F332" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="333" spans="6:6">
       <c r="F333" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="334" spans="6:6">
       <c r="F334" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="335" spans="6:6">
       <c r="F335" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="336" spans="6:6">
       <c r="F336" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="337" spans="6:6">
       <c r="F337" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="338" spans="6:6">
       <c r="F338" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="339" spans="6:6">
       <c r="F339" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="340" spans="6:6">
       <c r="F340" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="341" spans="6:6">
       <c r="F341" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="342" spans="6:6">
       <c r="F342" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="343" spans="6:6">
       <c r="F343" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="344" spans="6:6">
       <c r="F344" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="345" spans="6:6">
       <c r="F345" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="346" spans="6:6">
       <c r="F346" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="347" spans="6:6">
       <c r="F347" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="348" spans="6:6">
       <c r="F348" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="349" spans="6:6">
       <c r="F349" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="350" spans="6:6">
       <c r="F350" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="351" spans="6:6">
       <c r="F351" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="352" spans="6:6">
       <c r="F352" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="353" spans="6:6">
       <c r="F353" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="354" spans="6:6">
       <c r="F354" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="355" spans="6:6">
       <c r="F355" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="356" spans="6:6">
       <c r="F356" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="357" spans="6:6">
       <c r="F357" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="358" spans="6:6">
       <c r="F358" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="359" spans="6:6">
       <c r="F359" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="360" spans="6:6">
       <c r="F360" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="361" spans="6:6">
       <c r="F361" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="362" spans="6:6">
       <c r="F362" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="363" spans="6:6">
       <c r="F363" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="364" spans="6:6">
       <c r="F364" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="365" spans="6:6">
       <c r="F365" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="366" spans="6:6">
       <c r="F366" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="367" spans="6:6">
       <c r="F367" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="368" spans="6:6">
       <c r="F368" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="369" spans="6:6">
       <c r="F369" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="370" spans="6:6">
       <c r="F370" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="371" spans="6:6">
       <c r="F371" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="372" spans="6:6">
       <c r="F372" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="373" spans="6:6">
       <c r="F373" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="6:6">
       <c r="F374" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="375" spans="6:6">
       <c r="F375" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="6:6">
       <c r="F376" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="377" spans="6:6">
       <c r="F377" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="378" spans="6:6">
       <c r="F378" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="379" spans="6:6">
       <c r="F379" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="380" spans="6:6">
       <c r="F380" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="381" spans="6:6">
       <c r="F381" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="6:6">
       <c r="F382" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="383" spans="6:6">
       <c r="F383" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="6:6">
       <c r="F384" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="385" spans="6:6">
       <c r="F385" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="386" spans="6:6">
       <c r="F386" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="387" spans="6:6">
       <c r="F387" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="388" spans="6:6">
       <c r="F388" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="389" spans="6:6">
       <c r="F389" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="390" spans="6:6">
       <c r="F390" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="391" spans="6:6">
       <c r="F391" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="392" spans="6:6">
       <c r="F392" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="393" spans="6:6">
       <c r="F393" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="394" spans="6:6">
       <c r="F394" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="395" spans="6:6">
       <c r="F395" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="396" spans="6:6">
       <c r="F396" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="397" spans="6:6">
       <c r="F397" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="398" spans="6:6">
       <c r="F398" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="399" spans="6:6">
       <c r="F399" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="400" spans="6:6">
       <c r="F400" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="401" spans="6:6">
       <c r="F401" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="402" spans="6:6">
       <c r="F402" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="403" spans="6:6">
       <c r="F403" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="404" spans="6:6">
       <c r="F404" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="405" spans="6:6">
       <c r="F405" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="406" spans="6:6">
       <c r="F406" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="407" spans="6:6">
       <c r="F407" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="408" spans="6:6">
       <c r="F408" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="409" spans="6:6">
       <c r="F409" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="410" spans="6:6">
       <c r="F410" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="411" spans="6:6">
       <c r="F411" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="412" spans="6:6">
       <c r="F412" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="413" spans="6:6">
       <c r="F413" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="414" spans="6:6">
       <c r="F414" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="415" spans="6:6">
       <c r="F415" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="416" spans="6:6">
       <c r="F416" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="417" spans="6:6">
       <c r="F417" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="418" spans="6:6">
       <c r="F418" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="419" spans="6:6">
       <c r="F419" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="420" spans="6:6">
       <c r="F420" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="421" spans="6:6">
       <c r="F421" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="422" spans="6:6">
       <c r="F422" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="423" spans="6:6">
       <c r="F423" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="424" spans="6:6">
       <c r="F424" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="425" spans="6:6">
       <c r="F425" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="426" spans="6:6">
       <c r="F426" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -5749,10 +5929,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34BEBD9-9A59-4F8D-9149-B3960450026A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5767,72 +5947,80 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1" t="s">
         <v>645</v>
       </c>
-      <c r="B1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>647</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>649</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>651</v>
-      </c>
-      <c r="F1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>61</v>
       </c>
+      <c r="B2" t="s">
+        <v>682</v>
+      </c>
       <c r="C2" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" t="s">
         <v>652</v>
-      </c>
-      <c r="F2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="F4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="F5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="F6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="F7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="F8" t="s">
-        <v>660</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -5844,4 +6032,2955 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81DE781-E77E-482D-8AE2-BBCC495BBE48}">
+  <dimension ref="A1:M100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J1" t="s">
+        <v>693</v>
+      </c>
+      <c r="K1" t="s">
+        <v>694</v>
+      </c>
+      <c r="L1" t="s">
+        <v>684</v>
+      </c>
+      <c r="M1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H2" t="s">
+        <v>694</v>
+      </c>
+      <c r="I2" t="s">
+        <v>684</v>
+      </c>
+      <c r="J2" t="s">
+        <v>735</v>
+      </c>
+      <c r="K2" t="s">
+        <v>735</v>
+      </c>
+      <c r="L2" t="s">
+        <v>735</v>
+      </c>
+      <c r="M2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H3" t="s">
+        <v>684</v>
+      </c>
+      <c r="I3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F4" t="s">
+        <v>684</v>
+      </c>
+      <c r="G4" t="s">
+        <v>684</v>
+      </c>
+      <c r="H4" t="s">
+        <v>684</v>
+      </c>
+      <c r="I4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F5" t="s">
+        <v>694</v>
+      </c>
+      <c r="G5" t="s">
+        <v>696</v>
+      </c>
+      <c r="H5" t="s">
+        <v>694</v>
+      </c>
+      <c r="I5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G6" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" t="s">
+        <v>694</v>
+      </c>
+      <c r="I6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F7" t="s">
+        <v>684</v>
+      </c>
+      <c r="G7" t="s">
+        <v>684</v>
+      </c>
+      <c r="H7" t="s">
+        <v>694</v>
+      </c>
+      <c r="I7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E8" t="s">
+        <v>684</v>
+      </c>
+      <c r="F8" t="s">
+        <v>684</v>
+      </c>
+      <c r="G8" t="s">
+        <v>684</v>
+      </c>
+      <c r="H8" t="s">
+        <v>694</v>
+      </c>
+      <c r="I8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E9" t="s">
+        <v>684</v>
+      </c>
+      <c r="F9" t="s">
+        <v>684</v>
+      </c>
+      <c r="G9" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" t="s">
+        <v>684</v>
+      </c>
+      <c r="I9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" t="s">
+        <v>684</v>
+      </c>
+      <c r="D10" t="s">
+        <v>684</v>
+      </c>
+      <c r="E10" t="s">
+        <v>684</v>
+      </c>
+      <c r="F10" t="s">
+        <v>684</v>
+      </c>
+      <c r="G10" t="s">
+        <v>684</v>
+      </c>
+      <c r="H10" t="s">
+        <v>694</v>
+      </c>
+      <c r="I10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D11" t="s">
+        <v>684</v>
+      </c>
+      <c r="E11" t="s">
+        <v>684</v>
+      </c>
+      <c r="F11" t="s">
+        <v>684</v>
+      </c>
+      <c r="G11" t="s">
+        <v>684</v>
+      </c>
+      <c r="H11" t="s">
+        <v>684</v>
+      </c>
+      <c r="I11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>693</v>
+      </c>
+      <c r="C12" t="s">
+        <v>684</v>
+      </c>
+      <c r="D12" t="s">
+        <v>684</v>
+      </c>
+      <c r="E12" t="s">
+        <v>684</v>
+      </c>
+      <c r="F12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G12" t="s">
+        <v>684</v>
+      </c>
+      <c r="H12" t="s">
+        <v>684</v>
+      </c>
+      <c r="I12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D13" t="s">
+        <v>684</v>
+      </c>
+      <c r="E13" t="s">
+        <v>684</v>
+      </c>
+      <c r="F13" t="s">
+        <v>694</v>
+      </c>
+      <c r="G13" t="s">
+        <v>684</v>
+      </c>
+      <c r="H13" t="s">
+        <v>694</v>
+      </c>
+      <c r="I13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>693</v>
+      </c>
+      <c r="C14" t="s">
+        <v>694</v>
+      </c>
+      <c r="D14" t="s">
+        <v>694</v>
+      </c>
+      <c r="E14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" t="s">
+        <v>694</v>
+      </c>
+      <c r="G14" t="s">
+        <v>694</v>
+      </c>
+      <c r="H14" t="s">
+        <v>694</v>
+      </c>
+      <c r="I14" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C15" t="s">
+        <v>684</v>
+      </c>
+      <c r="D15" t="s">
+        <v>684</v>
+      </c>
+      <c r="E15" t="s">
+        <v>684</v>
+      </c>
+      <c r="F15" t="s">
+        <v>684</v>
+      </c>
+      <c r="G15" t="s">
+        <v>684</v>
+      </c>
+      <c r="H15" t="s">
+        <v>684</v>
+      </c>
+      <c r="I15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>693</v>
+      </c>
+      <c r="C16" t="s">
+        <v>694</v>
+      </c>
+      <c r="D16" t="s">
+        <v>696</v>
+      </c>
+      <c r="E16" t="s">
+        <v>694</v>
+      </c>
+      <c r="F16" t="s">
+        <v>694</v>
+      </c>
+      <c r="G16" t="s">
+        <v>684</v>
+      </c>
+      <c r="H16" t="s">
+        <v>694</v>
+      </c>
+      <c r="I16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>693</v>
+      </c>
+      <c r="C17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D17" t="s">
+        <v>694</v>
+      </c>
+      <c r="E17" t="s">
+        <v>694</v>
+      </c>
+      <c r="F17" t="s">
+        <v>694</v>
+      </c>
+      <c r="G17" t="s">
+        <v>684</v>
+      </c>
+      <c r="H17" t="s">
+        <v>694</v>
+      </c>
+      <c r="I17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>693</v>
+      </c>
+      <c r="C18" t="s">
+        <v>694</v>
+      </c>
+      <c r="D18" t="s">
+        <v>694</v>
+      </c>
+      <c r="E18" t="s">
+        <v>694</v>
+      </c>
+      <c r="F18" t="s">
+        <v>694</v>
+      </c>
+      <c r="G18" t="s">
+        <v>684</v>
+      </c>
+      <c r="H18" t="s">
+        <v>694</v>
+      </c>
+      <c r="I18" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>699</v>
+      </c>
+      <c r="B19" t="s">
+        <v>693</v>
+      </c>
+      <c r="C19" t="s">
+        <v>694</v>
+      </c>
+      <c r="D19" t="s">
+        <v>694</v>
+      </c>
+      <c r="E19" t="s">
+        <v>694</v>
+      </c>
+      <c r="F19" t="s">
+        <v>694</v>
+      </c>
+      <c r="G19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>700</v>
+      </c>
+      <c r="B20" t="s">
+        <v>693</v>
+      </c>
+      <c r="C20" t="s">
+        <v>694</v>
+      </c>
+      <c r="D20" t="s">
+        <v>694</v>
+      </c>
+      <c r="E20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G20" t="s">
+        <v>684</v>
+      </c>
+      <c r="H20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I20" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" t="s">
+        <v>684</v>
+      </c>
+      <c r="D21" t="s">
+        <v>684</v>
+      </c>
+      <c r="E21" t="s">
+        <v>684</v>
+      </c>
+      <c r="F21" t="s">
+        <v>684</v>
+      </c>
+      <c r="G21" t="s">
+        <v>684</v>
+      </c>
+      <c r="H21" t="s">
+        <v>684</v>
+      </c>
+      <c r="I21" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" t="s">
+        <v>693</v>
+      </c>
+      <c r="C22" t="s">
+        <v>684</v>
+      </c>
+      <c r="D22" t="s">
+        <v>684</v>
+      </c>
+      <c r="E22" t="s">
+        <v>694</v>
+      </c>
+      <c r="F22" t="s">
+        <v>694</v>
+      </c>
+      <c r="G22" t="s">
+        <v>684</v>
+      </c>
+      <c r="H22" t="s">
+        <v>694</v>
+      </c>
+      <c r="I22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C23" t="s">
+        <v>684</v>
+      </c>
+      <c r="D23" t="s">
+        <v>684</v>
+      </c>
+      <c r="E23" t="s">
+        <v>684</v>
+      </c>
+      <c r="F23" t="s">
+        <v>684</v>
+      </c>
+      <c r="G23" t="s">
+        <v>684</v>
+      </c>
+      <c r="H23" t="s">
+        <v>694</v>
+      </c>
+      <c r="I23" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>693</v>
+      </c>
+      <c r="C24" t="s">
+        <v>684</v>
+      </c>
+      <c r="D24" t="s">
+        <v>684</v>
+      </c>
+      <c r="E24" t="s">
+        <v>684</v>
+      </c>
+      <c r="F24" t="s">
+        <v>684</v>
+      </c>
+      <c r="G24" t="s">
+        <v>684</v>
+      </c>
+      <c r="H24" t="s">
+        <v>694</v>
+      </c>
+      <c r="I24" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>693</v>
+      </c>
+      <c r="C25" t="s">
+        <v>684</v>
+      </c>
+      <c r="D25" t="s">
+        <v>684</v>
+      </c>
+      <c r="E25" t="s">
+        <v>684</v>
+      </c>
+      <c r="F25" t="s">
+        <v>684</v>
+      </c>
+      <c r="G25" t="s">
+        <v>684</v>
+      </c>
+      <c r="H25" t="s">
+        <v>684</v>
+      </c>
+      <c r="I25" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>693</v>
+      </c>
+      <c r="C26" t="s">
+        <v>694</v>
+      </c>
+      <c r="D26" t="s">
+        <v>694</v>
+      </c>
+      <c r="E26" t="s">
+        <v>694</v>
+      </c>
+      <c r="F26" t="s">
+        <v>694</v>
+      </c>
+      <c r="G26" t="s">
+        <v>684</v>
+      </c>
+      <c r="H26" t="s">
+        <v>684</v>
+      </c>
+      <c r="I26" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>693</v>
+      </c>
+      <c r="C27" t="s">
+        <v>684</v>
+      </c>
+      <c r="D27" t="s">
+        <v>684</v>
+      </c>
+      <c r="E27" t="s">
+        <v>684</v>
+      </c>
+      <c r="F27" t="s">
+        <v>684</v>
+      </c>
+      <c r="G27" t="s">
+        <v>684</v>
+      </c>
+      <c r="H27" t="s">
+        <v>694</v>
+      </c>
+      <c r="I27" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>703</v>
+      </c>
+      <c r="B28" t="s">
+        <v>693</v>
+      </c>
+      <c r="C28" t="s">
+        <v>684</v>
+      </c>
+      <c r="D28" t="s">
+        <v>684</v>
+      </c>
+      <c r="E28" t="s">
+        <v>684</v>
+      </c>
+      <c r="F28" t="s">
+        <v>684</v>
+      </c>
+      <c r="G28" t="s">
+        <v>684</v>
+      </c>
+      <c r="H28" t="s">
+        <v>684</v>
+      </c>
+      <c r="I28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" t="s">
+        <v>693</v>
+      </c>
+      <c r="C29" t="s">
+        <v>684</v>
+      </c>
+      <c r="D29" t="s">
+        <v>684</v>
+      </c>
+      <c r="E29" t="s">
+        <v>684</v>
+      </c>
+      <c r="F29" t="s">
+        <v>684</v>
+      </c>
+      <c r="G29" t="s">
+        <v>684</v>
+      </c>
+      <c r="H29" t="s">
+        <v>684</v>
+      </c>
+      <c r="I29" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" t="s">
+        <v>693</v>
+      </c>
+      <c r="C30" t="s">
+        <v>694</v>
+      </c>
+      <c r="D30" t="s">
+        <v>694</v>
+      </c>
+      <c r="E30" t="s">
+        <v>694</v>
+      </c>
+      <c r="F30" t="s">
+        <v>694</v>
+      </c>
+      <c r="G30" t="s">
+        <v>684</v>
+      </c>
+      <c r="H30" t="s">
+        <v>684</v>
+      </c>
+      <c r="I30" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>704</v>
+      </c>
+      <c r="B31" t="s">
+        <v>693</v>
+      </c>
+      <c r="C31" t="s">
+        <v>684</v>
+      </c>
+      <c r="D31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E31" t="s">
+        <v>684</v>
+      </c>
+      <c r="F31" t="s">
+        <v>684</v>
+      </c>
+      <c r="G31" t="s">
+        <v>684</v>
+      </c>
+      <c r="H31" t="s">
+        <v>684</v>
+      </c>
+      <c r="I31" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D32" t="s">
+        <v>684</v>
+      </c>
+      <c r="E32" t="s">
+        <v>684</v>
+      </c>
+      <c r="F32" t="s">
+        <v>684</v>
+      </c>
+      <c r="G32" t="s">
+        <v>684</v>
+      </c>
+      <c r="H32" t="s">
+        <v>684</v>
+      </c>
+      <c r="I32" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>705</v>
+      </c>
+      <c r="B33" t="s">
+        <v>693</v>
+      </c>
+      <c r="C33" t="s">
+        <v>684</v>
+      </c>
+      <c r="D33" t="s">
+        <v>684</v>
+      </c>
+      <c r="E33" t="s">
+        <v>684</v>
+      </c>
+      <c r="F33" t="s">
+        <v>684</v>
+      </c>
+      <c r="G33" t="s">
+        <v>684</v>
+      </c>
+      <c r="H33" t="s">
+        <v>684</v>
+      </c>
+      <c r="I33" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>693</v>
+      </c>
+      <c r="C34" t="s">
+        <v>694</v>
+      </c>
+      <c r="D34" t="s">
+        <v>694</v>
+      </c>
+      <c r="E34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F34" t="s">
+        <v>694</v>
+      </c>
+      <c r="G34" t="s">
+        <v>684</v>
+      </c>
+      <c r="H34" t="s">
+        <v>684</v>
+      </c>
+      <c r="I34" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>706</v>
+      </c>
+      <c r="B35" t="s">
+        <v>693</v>
+      </c>
+      <c r="C35" t="s">
+        <v>684</v>
+      </c>
+      <c r="D35" t="s">
+        <v>684</v>
+      </c>
+      <c r="E35" t="s">
+        <v>684</v>
+      </c>
+      <c r="F35" t="s">
+        <v>684</v>
+      </c>
+      <c r="G35" t="s">
+        <v>684</v>
+      </c>
+      <c r="H35" t="s">
+        <v>684</v>
+      </c>
+      <c r="I35" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>693</v>
+      </c>
+      <c r="C36" t="s">
+        <v>684</v>
+      </c>
+      <c r="D36" t="s">
+        <v>684</v>
+      </c>
+      <c r="E36" t="s">
+        <v>684</v>
+      </c>
+      <c r="F36" t="s">
+        <v>684</v>
+      </c>
+      <c r="G36" t="s">
+        <v>684</v>
+      </c>
+      <c r="H36" t="s">
+        <v>684</v>
+      </c>
+      <c r="I36" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>693</v>
+      </c>
+      <c r="C37" t="s">
+        <v>684</v>
+      </c>
+      <c r="D37" t="s">
+        <v>684</v>
+      </c>
+      <c r="E37" t="s">
+        <v>684</v>
+      </c>
+      <c r="F37" t="s">
+        <v>684</v>
+      </c>
+      <c r="G37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H37" t="s">
+        <v>684</v>
+      </c>
+      <c r="I37" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>693</v>
+      </c>
+      <c r="C38" t="s">
+        <v>694</v>
+      </c>
+      <c r="D38" t="s">
+        <v>694</v>
+      </c>
+      <c r="E38" t="s">
+        <v>694</v>
+      </c>
+      <c r="F38" t="s">
+        <v>694</v>
+      </c>
+      <c r="G38" t="s">
+        <v>684</v>
+      </c>
+      <c r="H38" t="s">
+        <v>684</v>
+      </c>
+      <c r="I38" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>693</v>
+      </c>
+      <c r="C39" t="s">
+        <v>684</v>
+      </c>
+      <c r="D39" t="s">
+        <v>684</v>
+      </c>
+      <c r="E39" t="s">
+        <v>684</v>
+      </c>
+      <c r="F39" t="s">
+        <v>684</v>
+      </c>
+      <c r="G39" t="s">
+        <v>684</v>
+      </c>
+      <c r="H39" t="s">
+        <v>684</v>
+      </c>
+      <c r="I39" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>693</v>
+      </c>
+      <c r="C40" t="s">
+        <v>684</v>
+      </c>
+      <c r="D40" t="s">
+        <v>684</v>
+      </c>
+      <c r="E40" t="s">
+        <v>684</v>
+      </c>
+      <c r="F40" t="s">
+        <v>684</v>
+      </c>
+      <c r="G40" t="s">
+        <v>684</v>
+      </c>
+      <c r="H40" t="s">
+        <v>684</v>
+      </c>
+      <c r="I40" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>693</v>
+      </c>
+      <c r="C41" t="s">
+        <v>684</v>
+      </c>
+      <c r="D41" t="s">
+        <v>684</v>
+      </c>
+      <c r="E41" t="s">
+        <v>684</v>
+      </c>
+      <c r="F41" t="s">
+        <v>684</v>
+      </c>
+      <c r="G41" t="s">
+        <v>684</v>
+      </c>
+      <c r="H41" t="s">
+        <v>684</v>
+      </c>
+      <c r="I41" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>707</v>
+      </c>
+      <c r="B42" t="s">
+        <v>693</v>
+      </c>
+      <c r="C42" t="s">
+        <v>684</v>
+      </c>
+      <c r="D42" t="s">
+        <v>684</v>
+      </c>
+      <c r="E42" t="s">
+        <v>684</v>
+      </c>
+      <c r="F42" t="s">
+        <v>684</v>
+      </c>
+      <c r="G42" t="s">
+        <v>684</v>
+      </c>
+      <c r="H42" t="s">
+        <v>684</v>
+      </c>
+      <c r="I42" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>708</v>
+      </c>
+      <c r="B43" t="s">
+        <v>693</v>
+      </c>
+      <c r="C43" t="s">
+        <v>684</v>
+      </c>
+      <c r="D43" t="s">
+        <v>684</v>
+      </c>
+      <c r="E43" t="s">
+        <v>684</v>
+      </c>
+      <c r="F43" t="s">
+        <v>684</v>
+      </c>
+      <c r="G43" t="s">
+        <v>684</v>
+      </c>
+      <c r="H43" t="s">
+        <v>684</v>
+      </c>
+      <c r="I43" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>693</v>
+      </c>
+      <c r="C44" t="s">
+        <v>684</v>
+      </c>
+      <c r="D44" t="s">
+        <v>684</v>
+      </c>
+      <c r="E44" t="s">
+        <v>684</v>
+      </c>
+      <c r="F44" t="s">
+        <v>684</v>
+      </c>
+      <c r="G44" t="s">
+        <v>684</v>
+      </c>
+      <c r="H44" t="s">
+        <v>684</v>
+      </c>
+      <c r="I44" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>693</v>
+      </c>
+      <c r="C45" t="s">
+        <v>684</v>
+      </c>
+      <c r="D45" t="s">
+        <v>684</v>
+      </c>
+      <c r="E45" t="s">
+        <v>684</v>
+      </c>
+      <c r="F45" t="s">
+        <v>684</v>
+      </c>
+      <c r="G45" t="s">
+        <v>684</v>
+      </c>
+      <c r="H45" t="s">
+        <v>684</v>
+      </c>
+      <c r="I45" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>693</v>
+      </c>
+      <c r="C46" t="s">
+        <v>684</v>
+      </c>
+      <c r="D46" t="s">
+        <v>684</v>
+      </c>
+      <c r="E46" t="s">
+        <v>684</v>
+      </c>
+      <c r="F46" t="s">
+        <v>684</v>
+      </c>
+      <c r="G46" t="s">
+        <v>684</v>
+      </c>
+      <c r="H46" t="s">
+        <v>684</v>
+      </c>
+      <c r="I46" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>693</v>
+      </c>
+      <c r="C47" t="s">
+        <v>684</v>
+      </c>
+      <c r="D47" t="s">
+        <v>684</v>
+      </c>
+      <c r="E47" t="s">
+        <v>684</v>
+      </c>
+      <c r="F47" t="s">
+        <v>684</v>
+      </c>
+      <c r="G47" t="s">
+        <v>684</v>
+      </c>
+      <c r="H47" t="s">
+        <v>684</v>
+      </c>
+      <c r="I47" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>709</v>
+      </c>
+      <c r="B48" t="s">
+        <v>693</v>
+      </c>
+      <c r="C48" t="s">
+        <v>684</v>
+      </c>
+      <c r="D48" t="s">
+        <v>684</v>
+      </c>
+      <c r="E48" t="s">
+        <v>684</v>
+      </c>
+      <c r="F48" t="s">
+        <v>684</v>
+      </c>
+      <c r="G48" t="s">
+        <v>684</v>
+      </c>
+      <c r="H48" t="s">
+        <v>684</v>
+      </c>
+      <c r="I48" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>710</v>
+      </c>
+      <c r="B49" t="s">
+        <v>693</v>
+      </c>
+      <c r="C49" t="s">
+        <v>684</v>
+      </c>
+      <c r="D49" t="s">
+        <v>684</v>
+      </c>
+      <c r="E49" t="s">
+        <v>684</v>
+      </c>
+      <c r="F49" t="s">
+        <v>684</v>
+      </c>
+      <c r="G49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H49" t="s">
+        <v>684</v>
+      </c>
+      <c r="I49" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>734</v>
+      </c>
+      <c r="B50" t="s">
+        <v>693</v>
+      </c>
+      <c r="C50" t="s">
+        <v>684</v>
+      </c>
+      <c r="D50" t="s">
+        <v>684</v>
+      </c>
+      <c r="E50" t="s">
+        <v>684</v>
+      </c>
+      <c r="F50" t="s">
+        <v>684</v>
+      </c>
+      <c r="G50" t="s">
+        <v>684</v>
+      </c>
+      <c r="H50" t="s">
+        <v>694</v>
+      </c>
+      <c r="I50" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>734</v>
+      </c>
+      <c r="B51" t="s">
+        <v>693</v>
+      </c>
+      <c r="C51" t="s">
+        <v>684</v>
+      </c>
+      <c r="D51" t="s">
+        <v>684</v>
+      </c>
+      <c r="E51" t="s">
+        <v>684</v>
+      </c>
+      <c r="F51" t="s">
+        <v>684</v>
+      </c>
+      <c r="G51" t="s">
+        <v>684</v>
+      </c>
+      <c r="H51" t="s">
+        <v>694</v>
+      </c>
+      <c r="I51" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>711</v>
+      </c>
+      <c r="B52" t="s">
+        <v>693</v>
+      </c>
+      <c r="C52" t="s">
+        <v>684</v>
+      </c>
+      <c r="D52" t="s">
+        <v>684</v>
+      </c>
+      <c r="E52" t="s">
+        <v>684</v>
+      </c>
+      <c r="F52" t="s">
+        <v>684</v>
+      </c>
+      <c r="G52" t="s">
+        <v>684</v>
+      </c>
+      <c r="H52" t="s">
+        <v>694</v>
+      </c>
+      <c r="I52" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>693</v>
+      </c>
+      <c r="C53" t="s">
+        <v>684</v>
+      </c>
+      <c r="D53" t="s">
+        <v>684</v>
+      </c>
+      <c r="E53" t="s">
+        <v>684</v>
+      </c>
+      <c r="F53" t="s">
+        <v>684</v>
+      </c>
+      <c r="G53" t="s">
+        <v>684</v>
+      </c>
+      <c r="H53" t="s">
+        <v>684</v>
+      </c>
+      <c r="I53" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>693</v>
+      </c>
+      <c r="C54" t="s">
+        <v>684</v>
+      </c>
+      <c r="D54" t="s">
+        <v>684</v>
+      </c>
+      <c r="E54" t="s">
+        <v>684</v>
+      </c>
+      <c r="F54" t="s">
+        <v>684</v>
+      </c>
+      <c r="G54" t="s">
+        <v>684</v>
+      </c>
+      <c r="H54" t="s">
+        <v>684</v>
+      </c>
+      <c r="I54" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>693</v>
+      </c>
+      <c r="C55" t="s">
+        <v>684</v>
+      </c>
+      <c r="D55" t="s">
+        <v>684</v>
+      </c>
+      <c r="E55" t="s">
+        <v>684</v>
+      </c>
+      <c r="F55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G55" t="s">
+        <v>684</v>
+      </c>
+      <c r="H55" t="s">
+        <v>684</v>
+      </c>
+      <c r="I55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>712</v>
+      </c>
+      <c r="B56" t="s">
+        <v>693</v>
+      </c>
+      <c r="C56" t="s">
+        <v>684</v>
+      </c>
+      <c r="D56" t="s">
+        <v>684</v>
+      </c>
+      <c r="E56" t="s">
+        <v>684</v>
+      </c>
+      <c r="F56" t="s">
+        <v>684</v>
+      </c>
+      <c r="G56" t="s">
+        <v>684</v>
+      </c>
+      <c r="H56" t="s">
+        <v>684</v>
+      </c>
+      <c r="I56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>734</v>
+      </c>
+      <c r="B57" t="s">
+        <v>693</v>
+      </c>
+      <c r="C57" t="s">
+        <v>684</v>
+      </c>
+      <c r="D57" t="s">
+        <v>684</v>
+      </c>
+      <c r="E57" t="s">
+        <v>684</v>
+      </c>
+      <c r="F57" t="s">
+        <v>684</v>
+      </c>
+      <c r="G57" t="s">
+        <v>684</v>
+      </c>
+      <c r="H57" t="s">
+        <v>684</v>
+      </c>
+      <c r="I57" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C58" t="s">
+        <v>684</v>
+      </c>
+      <c r="D58" t="s">
+        <v>684</v>
+      </c>
+      <c r="E58" t="s">
+        <v>684</v>
+      </c>
+      <c r="F58" t="s">
+        <v>684</v>
+      </c>
+      <c r="G58" t="s">
+        <v>684</v>
+      </c>
+      <c r="H58" t="s">
+        <v>684</v>
+      </c>
+      <c r="I58" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>693</v>
+      </c>
+      <c r="C59" t="s">
+        <v>684</v>
+      </c>
+      <c r="D59" t="s">
+        <v>684</v>
+      </c>
+      <c r="E59" t="s">
+        <v>684</v>
+      </c>
+      <c r="F59" t="s">
+        <v>684</v>
+      </c>
+      <c r="G59" t="s">
+        <v>684</v>
+      </c>
+      <c r="H59" t="s">
+        <v>684</v>
+      </c>
+      <c r="I59" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>693</v>
+      </c>
+      <c r="C60" t="s">
+        <v>684</v>
+      </c>
+      <c r="D60" t="s">
+        <v>684</v>
+      </c>
+      <c r="E60" t="s">
+        <v>684</v>
+      </c>
+      <c r="F60" t="s">
+        <v>684</v>
+      </c>
+      <c r="G60" t="s">
+        <v>684</v>
+      </c>
+      <c r="H60" t="s">
+        <v>684</v>
+      </c>
+      <c r="I60" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>693</v>
+      </c>
+      <c r="C61" t="s">
+        <v>684</v>
+      </c>
+      <c r="D61" t="s">
+        <v>684</v>
+      </c>
+      <c r="E61" t="s">
+        <v>684</v>
+      </c>
+      <c r="F61" t="s">
+        <v>684</v>
+      </c>
+      <c r="G61" t="s">
+        <v>684</v>
+      </c>
+      <c r="H61" t="s">
+        <v>684</v>
+      </c>
+      <c r="I61" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>713</v>
+      </c>
+      <c r="B62" t="s">
+        <v>693</v>
+      </c>
+      <c r="C62" t="s">
+        <v>684</v>
+      </c>
+      <c r="D62" t="s">
+        <v>684</v>
+      </c>
+      <c r="E62" t="s">
+        <v>684</v>
+      </c>
+      <c r="F62" t="s">
+        <v>684</v>
+      </c>
+      <c r="G62" t="s">
+        <v>684</v>
+      </c>
+      <c r="H62" t="s">
+        <v>684</v>
+      </c>
+      <c r="I62" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>714</v>
+      </c>
+      <c r="B63" t="s">
+        <v>693</v>
+      </c>
+      <c r="C63" t="s">
+        <v>684</v>
+      </c>
+      <c r="D63" t="s">
+        <v>684</v>
+      </c>
+      <c r="E63" t="s">
+        <v>684</v>
+      </c>
+      <c r="F63" t="s">
+        <v>684</v>
+      </c>
+      <c r="G63" t="s">
+        <v>684</v>
+      </c>
+      <c r="H63" t="s">
+        <v>684</v>
+      </c>
+      <c r="I63" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>734</v>
+      </c>
+      <c r="B64" t="s">
+        <v>693</v>
+      </c>
+      <c r="C64" t="s">
+        <v>684</v>
+      </c>
+      <c r="D64" t="s">
+        <v>684</v>
+      </c>
+      <c r="E64" t="s">
+        <v>684</v>
+      </c>
+      <c r="F64" t="s">
+        <v>684</v>
+      </c>
+      <c r="G64" t="s">
+        <v>684</v>
+      </c>
+      <c r="H64" t="s">
+        <v>684</v>
+      </c>
+      <c r="I64" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>715</v>
+      </c>
+      <c r="B65" t="s">
+        <v>693</v>
+      </c>
+      <c r="C65" t="s">
+        <v>684</v>
+      </c>
+      <c r="D65" t="s">
+        <v>684</v>
+      </c>
+      <c r="E65" t="s">
+        <v>684</v>
+      </c>
+      <c r="F65" t="s">
+        <v>684</v>
+      </c>
+      <c r="G65" t="s">
+        <v>684</v>
+      </c>
+      <c r="H65" t="s">
+        <v>684</v>
+      </c>
+      <c r="I65" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" t="s">
+        <v>693</v>
+      </c>
+      <c r="C66" t="s">
+        <v>684</v>
+      </c>
+      <c r="D66" t="s">
+        <v>684</v>
+      </c>
+      <c r="E66" t="s">
+        <v>684</v>
+      </c>
+      <c r="F66" t="s">
+        <v>684</v>
+      </c>
+      <c r="G66" t="s">
+        <v>684</v>
+      </c>
+      <c r="H66" t="s">
+        <v>684</v>
+      </c>
+      <c r="I66" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>693</v>
+      </c>
+      <c r="C67" t="s">
+        <v>684</v>
+      </c>
+      <c r="D67" t="s">
+        <v>684</v>
+      </c>
+      <c r="E67" t="s">
+        <v>684</v>
+      </c>
+      <c r="F67" t="s">
+        <v>684</v>
+      </c>
+      <c r="G67" t="s">
+        <v>684</v>
+      </c>
+      <c r="H67" t="s">
+        <v>684</v>
+      </c>
+      <c r="I67" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C68" t="s">
+        <v>684</v>
+      </c>
+      <c r="D68" t="s">
+        <v>684</v>
+      </c>
+      <c r="E68" t="s">
+        <v>684</v>
+      </c>
+      <c r="F68" t="s">
+        <v>684</v>
+      </c>
+      <c r="G68" t="s">
+        <v>684</v>
+      </c>
+      <c r="H68" t="s">
+        <v>684</v>
+      </c>
+      <c r="I68" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
+        <v>693</v>
+      </c>
+      <c r="C69" t="s">
+        <v>684</v>
+      </c>
+      <c r="D69" t="s">
+        <v>684</v>
+      </c>
+      <c r="E69" t="s">
+        <v>684</v>
+      </c>
+      <c r="F69" t="s">
+        <v>684</v>
+      </c>
+      <c r="G69" t="s">
+        <v>684</v>
+      </c>
+      <c r="H69" t="s">
+        <v>684</v>
+      </c>
+      <c r="I69" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>693</v>
+      </c>
+      <c r="C70" t="s">
+        <v>684</v>
+      </c>
+      <c r="D70" t="s">
+        <v>684</v>
+      </c>
+      <c r="E70" t="s">
+        <v>684</v>
+      </c>
+      <c r="F70" t="s">
+        <v>684</v>
+      </c>
+      <c r="G70" t="s">
+        <v>684</v>
+      </c>
+      <c r="H70" t="s">
+        <v>684</v>
+      </c>
+      <c r="I70" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>716</v>
+      </c>
+      <c r="B71" t="s">
+        <v>693</v>
+      </c>
+      <c r="C71" t="s">
+        <v>684</v>
+      </c>
+      <c r="D71" t="s">
+        <v>684</v>
+      </c>
+      <c r="E71" t="s">
+        <v>684</v>
+      </c>
+      <c r="F71" t="s">
+        <v>684</v>
+      </c>
+      <c r="G71" t="s">
+        <v>684</v>
+      </c>
+      <c r="H71" t="s">
+        <v>684</v>
+      </c>
+      <c r="I71" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>734</v>
+      </c>
+      <c r="B72" t="s">
+        <v>693</v>
+      </c>
+      <c r="C72" t="s">
+        <v>684</v>
+      </c>
+      <c r="D72" t="s">
+        <v>684</v>
+      </c>
+      <c r="E72" t="s">
+        <v>684</v>
+      </c>
+      <c r="F72" t="s">
+        <v>684</v>
+      </c>
+      <c r="G72" t="s">
+        <v>684</v>
+      </c>
+      <c r="H72" t="s">
+        <v>684</v>
+      </c>
+      <c r="I72" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>693</v>
+      </c>
+      <c r="C73" t="s">
+        <v>684</v>
+      </c>
+      <c r="D73" t="s">
+        <v>684</v>
+      </c>
+      <c r="E73" t="s">
+        <v>684</v>
+      </c>
+      <c r="F73" t="s">
+        <v>684</v>
+      </c>
+      <c r="G73" t="s">
+        <v>684</v>
+      </c>
+      <c r="H73" t="s">
+        <v>684</v>
+      </c>
+      <c r="I73" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" t="s">
+        <v>693</v>
+      </c>
+      <c r="C74" t="s">
+        <v>684</v>
+      </c>
+      <c r="D74" t="s">
+        <v>684</v>
+      </c>
+      <c r="E74" t="s">
+        <v>684</v>
+      </c>
+      <c r="F74" t="s">
+        <v>684</v>
+      </c>
+      <c r="G74" t="s">
+        <v>684</v>
+      </c>
+      <c r="H74" t="s">
+        <v>684</v>
+      </c>
+      <c r="I74" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" t="s">
+        <v>693</v>
+      </c>
+      <c r="C75" t="s">
+        <v>684</v>
+      </c>
+      <c r="D75" t="s">
+        <v>684</v>
+      </c>
+      <c r="E75" t="s">
+        <v>684</v>
+      </c>
+      <c r="F75" t="s">
+        <v>684</v>
+      </c>
+      <c r="G75" t="s">
+        <v>684</v>
+      </c>
+      <c r="H75" t="s">
+        <v>684</v>
+      </c>
+      <c r="I75" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>717</v>
+      </c>
+      <c r="B76" t="s">
+        <v>693</v>
+      </c>
+      <c r="C76" t="s">
+        <v>684</v>
+      </c>
+      <c r="D76" t="s">
+        <v>684</v>
+      </c>
+      <c r="E76" t="s">
+        <v>684</v>
+      </c>
+      <c r="F76" t="s">
+        <v>684</v>
+      </c>
+      <c r="G76" t="s">
+        <v>684</v>
+      </c>
+      <c r="H76" t="s">
+        <v>684</v>
+      </c>
+      <c r="I76" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>718</v>
+      </c>
+      <c r="B77" t="s">
+        <v>693</v>
+      </c>
+      <c r="C77" t="s">
+        <v>684</v>
+      </c>
+      <c r="D77" t="s">
+        <v>684</v>
+      </c>
+      <c r="E77" t="s">
+        <v>684</v>
+      </c>
+      <c r="F77" t="s">
+        <v>684</v>
+      </c>
+      <c r="G77" t="s">
+        <v>684</v>
+      </c>
+      <c r="H77" t="s">
+        <v>684</v>
+      </c>
+      <c r="I77" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>693</v>
+      </c>
+      <c r="C78" t="s">
+        <v>684</v>
+      </c>
+      <c r="D78" t="s">
+        <v>684</v>
+      </c>
+      <c r="E78" t="s">
+        <v>684</v>
+      </c>
+      <c r="F78" t="s">
+        <v>684</v>
+      </c>
+      <c r="G78" t="s">
+        <v>684</v>
+      </c>
+      <c r="H78" t="s">
+        <v>684</v>
+      </c>
+      <c r="I78" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>719</v>
+      </c>
+      <c r="B79" t="s">
+        <v>693</v>
+      </c>
+      <c r="C79" t="s">
+        <v>684</v>
+      </c>
+      <c r="D79" t="s">
+        <v>684</v>
+      </c>
+      <c r="E79" t="s">
+        <v>684</v>
+      </c>
+      <c r="F79" t="s">
+        <v>684</v>
+      </c>
+      <c r="G79" t="s">
+        <v>684</v>
+      </c>
+      <c r="H79" t="s">
+        <v>684</v>
+      </c>
+      <c r="I79" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>720</v>
+      </c>
+      <c r="B80" t="s">
+        <v>693</v>
+      </c>
+      <c r="C80" t="s">
+        <v>684</v>
+      </c>
+      <c r="D80" t="s">
+        <v>684</v>
+      </c>
+      <c r="E80" t="s">
+        <v>684</v>
+      </c>
+      <c r="F80" t="s">
+        <v>684</v>
+      </c>
+      <c r="G80" t="s">
+        <v>684</v>
+      </c>
+      <c r="H80" t="s">
+        <v>684</v>
+      </c>
+      <c r="I80" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>721</v>
+      </c>
+      <c r="B81" t="s">
+        <v>693</v>
+      </c>
+      <c r="C81" t="s">
+        <v>684</v>
+      </c>
+      <c r="D81" t="s">
+        <v>684</v>
+      </c>
+      <c r="E81" t="s">
+        <v>684</v>
+      </c>
+      <c r="F81" t="s">
+        <v>684</v>
+      </c>
+      <c r="G81" t="s">
+        <v>684</v>
+      </c>
+      <c r="H81" t="s">
+        <v>684</v>
+      </c>
+      <c r="I81" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>722</v>
+      </c>
+      <c r="B82" t="s">
+        <v>693</v>
+      </c>
+      <c r="C82" t="s">
+        <v>684</v>
+      </c>
+      <c r="D82" t="s">
+        <v>684</v>
+      </c>
+      <c r="E82" t="s">
+        <v>684</v>
+      </c>
+      <c r="F82" t="s">
+        <v>684</v>
+      </c>
+      <c r="G82" t="s">
+        <v>684</v>
+      </c>
+      <c r="H82" t="s">
+        <v>684</v>
+      </c>
+      <c r="I82" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" t="s">
+        <v>693</v>
+      </c>
+      <c r="C83" t="s">
+        <v>694</v>
+      </c>
+      <c r="D83" t="s">
+        <v>684</v>
+      </c>
+      <c r="E83" t="s">
+        <v>684</v>
+      </c>
+      <c r="F83" t="s">
+        <v>694</v>
+      </c>
+      <c r="G83" t="s">
+        <v>684</v>
+      </c>
+      <c r="H83" t="s">
+        <v>684</v>
+      </c>
+      <c r="I83" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" t="s">
+        <v>693</v>
+      </c>
+      <c r="C84" t="s">
+        <v>696</v>
+      </c>
+      <c r="D84" t="s">
+        <v>696</v>
+      </c>
+      <c r="E84" t="s">
+        <v>694</v>
+      </c>
+      <c r="F84" t="s">
+        <v>694</v>
+      </c>
+      <c r="G84" t="s">
+        <v>684</v>
+      </c>
+      <c r="H84" t="s">
+        <v>694</v>
+      </c>
+      <c r="I84" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" t="s">
+        <v>693</v>
+      </c>
+      <c r="C85" t="s">
+        <v>696</v>
+      </c>
+      <c r="D85" t="s">
+        <v>696</v>
+      </c>
+      <c r="E85" t="s">
+        <v>694</v>
+      </c>
+      <c r="F85" t="s">
+        <v>694</v>
+      </c>
+      <c r="G85" t="s">
+        <v>684</v>
+      </c>
+      <c r="H85" t="s">
+        <v>694</v>
+      </c>
+      <c r="I85" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" t="s">
+        <v>693</v>
+      </c>
+      <c r="C86" t="s">
+        <v>684</v>
+      </c>
+      <c r="D86" t="s">
+        <v>684</v>
+      </c>
+      <c r="E86" t="s">
+        <v>684</v>
+      </c>
+      <c r="F86" t="s">
+        <v>684</v>
+      </c>
+      <c r="G86" t="s">
+        <v>684</v>
+      </c>
+      <c r="H86" t="s">
+        <v>694</v>
+      </c>
+      <c r="I86" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>693</v>
+      </c>
+      <c r="C87" t="s">
+        <v>684</v>
+      </c>
+      <c r="D87" t="s">
+        <v>684</v>
+      </c>
+      <c r="E87" t="s">
+        <v>684</v>
+      </c>
+      <c r="F87" t="s">
+        <v>684</v>
+      </c>
+      <c r="G87" t="s">
+        <v>684</v>
+      </c>
+      <c r="H87" t="s">
+        <v>684</v>
+      </c>
+      <c r="I87" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>693</v>
+      </c>
+      <c r="C88" t="s">
+        <v>696</v>
+      </c>
+      <c r="D88" t="s">
+        <v>696</v>
+      </c>
+      <c r="E88" t="s">
+        <v>694</v>
+      </c>
+      <c r="F88" t="s">
+        <v>694</v>
+      </c>
+      <c r="G88" t="s">
+        <v>684</v>
+      </c>
+      <c r="H88" t="s">
+        <v>694</v>
+      </c>
+      <c r="I88" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>723</v>
+      </c>
+      <c r="B89" t="s">
+        <v>693</v>
+      </c>
+      <c r="C89" t="s">
+        <v>684</v>
+      </c>
+      <c r="D89" t="s">
+        <v>684</v>
+      </c>
+      <c r="E89" t="s">
+        <v>684</v>
+      </c>
+      <c r="F89" t="s">
+        <v>684</v>
+      </c>
+      <c r="G89" t="s">
+        <v>684</v>
+      </c>
+      <c r="H89" t="s">
+        <v>684</v>
+      </c>
+      <c r="I89" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>724</v>
+      </c>
+      <c r="B90" t="s">
+        <v>693</v>
+      </c>
+      <c r="C90" t="s">
+        <v>684</v>
+      </c>
+      <c r="D90" t="s">
+        <v>684</v>
+      </c>
+      <c r="E90" t="s">
+        <v>684</v>
+      </c>
+      <c r="F90" t="s">
+        <v>684</v>
+      </c>
+      <c r="G90" t="s">
+        <v>684</v>
+      </c>
+      <c r="H90" t="s">
+        <v>684</v>
+      </c>
+      <c r="I90" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>725</v>
+      </c>
+      <c r="B91" t="s">
+        <v>693</v>
+      </c>
+      <c r="C91" t="s">
+        <v>684</v>
+      </c>
+      <c r="D91" t="s">
+        <v>684</v>
+      </c>
+      <c r="E91" t="s">
+        <v>684</v>
+      </c>
+      <c r="F91" t="s">
+        <v>684</v>
+      </c>
+      <c r="G91" t="s">
+        <v>684</v>
+      </c>
+      <c r="H91" t="s">
+        <v>684</v>
+      </c>
+      <c r="I91" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>726</v>
+      </c>
+      <c r="B92" t="s">
+        <v>693</v>
+      </c>
+      <c r="C92" t="s">
+        <v>684</v>
+      </c>
+      <c r="D92" t="s">
+        <v>684</v>
+      </c>
+      <c r="E92" t="s">
+        <v>684</v>
+      </c>
+      <c r="F92" t="s">
+        <v>684</v>
+      </c>
+      <c r="G92" t="s">
+        <v>684</v>
+      </c>
+      <c r="H92" t="s">
+        <v>684</v>
+      </c>
+      <c r="I92" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>727</v>
+      </c>
+      <c r="B93" t="s">
+        <v>693</v>
+      </c>
+      <c r="C93" t="s">
+        <v>684</v>
+      </c>
+      <c r="D93" t="s">
+        <v>684</v>
+      </c>
+      <c r="E93" t="s">
+        <v>684</v>
+      </c>
+      <c r="F93" t="s">
+        <v>684</v>
+      </c>
+      <c r="G93" t="s">
+        <v>684</v>
+      </c>
+      <c r="H93" t="s">
+        <v>684</v>
+      </c>
+      <c r="I93" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>728</v>
+      </c>
+      <c r="B94" t="s">
+        <v>693</v>
+      </c>
+      <c r="C94" t="s">
+        <v>684</v>
+      </c>
+      <c r="D94" t="s">
+        <v>684</v>
+      </c>
+      <c r="E94" t="s">
+        <v>684</v>
+      </c>
+      <c r="F94" t="s">
+        <v>684</v>
+      </c>
+      <c r="G94" t="s">
+        <v>684</v>
+      </c>
+      <c r="H94" t="s">
+        <v>694</v>
+      </c>
+      <c r="I94" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>729</v>
+      </c>
+      <c r="B95" t="s">
+        <v>693</v>
+      </c>
+      <c r="C95" t="s">
+        <v>684</v>
+      </c>
+      <c r="D95" t="s">
+        <v>684</v>
+      </c>
+      <c r="E95" t="s">
+        <v>684</v>
+      </c>
+      <c r="F95" t="s">
+        <v>684</v>
+      </c>
+      <c r="G95" t="s">
+        <v>684</v>
+      </c>
+      <c r="H95" t="s">
+        <v>694</v>
+      </c>
+      <c r="I95" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>730</v>
+      </c>
+      <c r="B96" t="s">
+        <v>693</v>
+      </c>
+      <c r="C96" t="s">
+        <v>684</v>
+      </c>
+      <c r="D96" t="s">
+        <v>684</v>
+      </c>
+      <c r="E96" t="s">
+        <v>684</v>
+      </c>
+      <c r="F96" t="s">
+        <v>684</v>
+      </c>
+      <c r="G96" t="s">
+        <v>684</v>
+      </c>
+      <c r="H96" t="s">
+        <v>694</v>
+      </c>
+      <c r="I96" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" t="s">
+        <v>693</v>
+      </c>
+      <c r="C97" t="s">
+        <v>684</v>
+      </c>
+      <c r="D97" t="s">
+        <v>684</v>
+      </c>
+      <c r="E97" t="s">
+        <v>684</v>
+      </c>
+      <c r="F97" t="s">
+        <v>684</v>
+      </c>
+      <c r="G97" t="s">
+        <v>684</v>
+      </c>
+      <c r="H97" t="s">
+        <v>694</v>
+      </c>
+      <c r="I97" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>731</v>
+      </c>
+      <c r="B98" t="s">
+        <v>693</v>
+      </c>
+      <c r="C98" t="s">
+        <v>684</v>
+      </c>
+      <c r="D98" t="s">
+        <v>684</v>
+      </c>
+      <c r="E98" t="s">
+        <v>684</v>
+      </c>
+      <c r="F98" t="s">
+        <v>684</v>
+      </c>
+      <c r="G98" t="s">
+        <v>684</v>
+      </c>
+      <c r="H98" t="s">
+        <v>694</v>
+      </c>
+      <c r="I98" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>732</v>
+      </c>
+      <c r="B99" t="s">
+        <v>693</v>
+      </c>
+      <c r="C99" t="s">
+        <v>684</v>
+      </c>
+      <c r="D99" t="s">
+        <v>684</v>
+      </c>
+      <c r="E99" t="s">
+        <v>684</v>
+      </c>
+      <c r="F99" t="s">
+        <v>684</v>
+      </c>
+      <c r="G99" t="s">
+        <v>684</v>
+      </c>
+      <c r="H99" t="s">
+        <v>694</v>
+      </c>
+      <c r="I99" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>733</v>
+      </c>
+      <c r="B100" t="s">
+        <v>693</v>
+      </c>
+      <c r="C100" t="s">
+        <v>684</v>
+      </c>
+      <c r="D100" t="s">
+        <v>684</v>
+      </c>
+      <c r="E100" t="s">
+        <v>684</v>
+      </c>
+      <c r="F100" t="s">
+        <v>684</v>
+      </c>
+      <c r="G100" t="s">
+        <v>684</v>
+      </c>
+      <c r="H100" t="s">
+        <v>694</v>
+      </c>
+      <c r="I100" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FiltaSymphony/UserPage.xlsx
+++ b/FiltaSymphony/UserPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C78812B7-F200-421E-BE37-D9D56176EBA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7386BF1B-B416-4A89-92A4-86B0A99B00A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12816" windowHeight="13224" tabRatio="703" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="12840" windowHeight="13224" tabRatio="645" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Access" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K6"/>
+  <oleSize ref="K1:T12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="740">
   <si>
     <t>Full Name:</t>
   </si>
@@ -2232,6 +2232,18 @@
   </si>
   <si>
     <t>rgba(34, 34, 34, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name  </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Do not delete.</t>
   </si>
 </sst>
 </file>
@@ -2241,12 +2253,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2291,6 +2310,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2311,11 +2336,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2329,11 +2354,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -6036,10 +6063,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81DE781-E77E-482D-8AE2-BBCC495BBE48}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6053,9 +6080,12 @@
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="12" t="s">
         <v>734</v>
       </c>
@@ -6095,8 +6125,26 @@
       <c r="M1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>736</v>
+      </c>
+      <c r="O1" t="s">
+        <v>737</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6137,7 +6185,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -6166,7 +6214,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>695</v>
       </c>
@@ -6195,7 +6243,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -6224,7 +6272,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -6253,7 +6301,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -6282,7 +6330,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -6311,7 +6359,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -6340,7 +6388,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>697</v>
       </c>
@@ -6369,7 +6417,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>734</v>
       </c>
@@ -6398,7 +6446,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -6427,7 +6475,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -6456,7 +6504,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -6485,7 +6533,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>698</v>
       </c>
@@ -6514,7 +6562,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>32</v>
       </c>
